--- a/data/stats.xlsx
+++ b/data/stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="713">
   <si>
     <t>Index</t>
   </si>
@@ -2140,6 +2140,9 @@
     <t>Penn St</t>
   </si>
   <si>
+    <t>xxx</t>
+  </si>
+  <si>
     <t>DIVISION 1 FBS</t>
   </si>
   <si>
@@ -2150,42 +2153,6 @@
   </si>
   <si>
     <t>DIVISION 3</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.462</t>
-  </si>
-  <si>
-    <t>0.420</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
   </si>
 </sst>
 </file>
@@ -2601,22 +2568,22 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>64.3</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>708</v>
-      </c>
-      <c r="H2" t="s">
-        <v>712</v>
-      </c>
-      <c r="I2" t="s">
-        <v>712</v>
-      </c>
-      <c r="J2" t="s">
-        <v>712</v>
-      </c>
-      <c r="K2" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H2">
+        <v>65.3</v>
+      </c>
+      <c r="I2">
+        <v>0.469</v>
+      </c>
+      <c r="J2">
+        <v>37.7</v>
+      </c>
+      <c r="K2">
+        <v>0.521</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2636,22 +2603,22 @@
         <v>670</v>
       </c>
       <c r="F3">
-        <v>58.1</v>
+        <v>46.8</v>
       </c>
       <c r="G3" t="s">
-        <v>708</v>
-      </c>
-      <c r="H3" t="s">
-        <v>712</v>
-      </c>
-      <c r="I3" t="s">
-        <v>712</v>
-      </c>
-      <c r="J3" t="s">
-        <v>712</v>
-      </c>
-      <c r="K3" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H3">
+        <v>59.3</v>
+      </c>
+      <c r="I3">
+        <v>0.174</v>
+      </c>
+      <c r="J3">
+        <v>38.3</v>
+      </c>
+      <c r="K3">
+        <v>0.53</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2671,10 +2638,10 @@
         <v>495</v>
       </c>
       <c r="F4">
-        <v>62.5</v>
+        <v>63.3</v>
       </c>
       <c r="G4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H4" t="s">
         <v>495</v>
@@ -2706,22 +2673,22 @@
         <v>14</v>
       </c>
       <c r="F5">
-        <v>109</v>
+        <v>103.1</v>
       </c>
       <c r="G5" t="s">
-        <v>708</v>
-      </c>
-      <c r="H5" t="s">
-        <v>712</v>
-      </c>
-      <c r="I5" t="s">
-        <v>712</v>
-      </c>
-      <c r="J5" t="s">
-        <v>712</v>
-      </c>
-      <c r="K5" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H5">
+        <v>78</v>
+      </c>
+      <c r="I5">
+        <v>0.329</v>
+      </c>
+      <c r="J5">
+        <v>20.3</v>
+      </c>
+      <c r="K5">
+        <v>0.394</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2741,22 +2708,22 @@
         <v>671</v>
       </c>
       <c r="F6">
-        <v>84.2</v>
+        <v>80.7</v>
       </c>
       <c r="G6" t="s">
-        <v>708</v>
-      </c>
-      <c r="H6" t="s">
-        <v>712</v>
-      </c>
-      <c r="I6" t="s">
-        <v>712</v>
-      </c>
-      <c r="J6" t="s">
-        <v>712</v>
-      </c>
-      <c r="K6" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H6">
+        <v>53.3</v>
+      </c>
+      <c r="I6">
+        <v>0.319</v>
+      </c>
+      <c r="J6">
+        <v>19.7</v>
+      </c>
+      <c r="K6">
+        <v>0.265</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2776,10 +2743,10 @@
         <v>495</v>
       </c>
       <c r="F7">
-        <v>50.1</v>
+        <v>56.9</v>
       </c>
       <c r="G7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H7" t="s">
         <v>495</v>
@@ -2811,22 +2778,22 @@
         <v>17</v>
       </c>
       <c r="F8">
-        <v>93.5</v>
+        <v>96.5</v>
       </c>
       <c r="G8" t="s">
-        <v>708</v>
-      </c>
-      <c r="H8" t="s">
-        <v>712</v>
-      </c>
-      <c r="I8" t="s">
-        <v>712</v>
-      </c>
-      <c r="J8" t="s">
-        <v>712</v>
-      </c>
-      <c r="K8" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H8">
+        <v>68</v>
+      </c>
+      <c r="I8">
+        <v>0.353</v>
+      </c>
+      <c r="J8">
+        <v>12.7</v>
+      </c>
+      <c r="K8">
+        <v>0.196</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2846,10 +2813,10 @@
         <v>495</v>
       </c>
       <c r="F9">
-        <v>74</v>
+        <v>66.8</v>
       </c>
       <c r="G9" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H9" t="s">
         <v>495</v>
@@ -2881,10 +2848,10 @@
         <v>495</v>
       </c>
       <c r="F10">
-        <v>71.59999999999999</v>
+        <v>58.7</v>
       </c>
       <c r="G10" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H10" t="s">
         <v>495</v>
@@ -2916,22 +2883,22 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>112.4</v>
+        <v>110.5</v>
       </c>
       <c r="G11" t="s">
-        <v>708</v>
-      </c>
-      <c r="H11" t="s">
-        <v>712</v>
-      </c>
-      <c r="I11" t="s">
-        <v>712</v>
-      </c>
-      <c r="J11" t="s">
-        <v>712</v>
-      </c>
-      <c r="K11" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H11">
+        <v>78.7</v>
+      </c>
+      <c r="I11">
+        <v>0.284</v>
+      </c>
+      <c r="J11">
+        <v>14.3</v>
+      </c>
+      <c r="K11">
+        <v>0.225</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2951,22 +2918,22 @@
         <v>21</v>
       </c>
       <c r="F12">
-        <v>72.09999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="G12" t="s">
-        <v>708</v>
-      </c>
-      <c r="H12" t="s">
-        <v>712</v>
-      </c>
-      <c r="I12" t="s">
-        <v>712</v>
-      </c>
-      <c r="J12" t="s">
-        <v>712</v>
-      </c>
-      <c r="K12" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H12">
+        <v>71</v>
+      </c>
+      <c r="I12">
+        <v>0.418</v>
+      </c>
+      <c r="J12">
+        <v>29.7</v>
+      </c>
+      <c r="K12">
+        <v>0.366</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2986,22 +2953,22 @@
         <v>22</v>
       </c>
       <c r="F13">
-        <v>79</v>
+        <v>85.5</v>
       </c>
       <c r="G13" t="s">
-        <v>708</v>
-      </c>
-      <c r="H13" t="s">
-        <v>712</v>
-      </c>
-      <c r="I13" t="s">
-        <v>712</v>
-      </c>
-      <c r="J13" t="s">
-        <v>712</v>
-      </c>
-      <c r="K13" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H13">
+        <v>72.7</v>
+      </c>
+      <c r="I13">
+        <v>0.174</v>
+      </c>
+      <c r="J13">
+        <v>35</v>
+      </c>
+      <c r="K13">
+        <v>0.515</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3021,22 +2988,22 @@
         <v>23</v>
       </c>
       <c r="F14">
-        <v>77.3</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>708</v>
-      </c>
-      <c r="H14" t="s">
-        <v>712</v>
-      </c>
-      <c r="I14" t="s">
-        <v>712</v>
-      </c>
-      <c r="J14" t="s">
-        <v>712</v>
-      </c>
-      <c r="K14" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H14">
+        <v>73.7</v>
+      </c>
+      <c r="I14">
+        <v>0.407</v>
+      </c>
+      <c r="J14">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>0.439</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3056,10 +3023,10 @@
         <v>495</v>
       </c>
       <c r="F15">
-        <v>32.5</v>
+        <v>50.6</v>
       </c>
       <c r="G15" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H15" t="s">
         <v>495</v>
@@ -3091,10 +3058,10 @@
         <v>495</v>
       </c>
       <c r="F16">
-        <v>64.40000000000001</v>
+        <v>65.7</v>
       </c>
       <c r="G16" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H16" t="s">
         <v>495</v>
@@ -3126,22 +3093,22 @@
         <v>672</v>
       </c>
       <c r="F17">
-        <v>68.5</v>
+        <v>76.5</v>
       </c>
       <c r="G17" t="s">
-        <v>708</v>
-      </c>
-      <c r="H17" t="s">
-        <v>712</v>
-      </c>
-      <c r="I17" t="s">
-        <v>712</v>
-      </c>
-      <c r="J17" t="s">
-        <v>712</v>
-      </c>
-      <c r="K17" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H17">
+        <v>75.3</v>
+      </c>
+      <c r="I17">
+        <v>0.239</v>
+      </c>
+      <c r="J17">
+        <v>18.7</v>
+      </c>
+      <c r="K17">
+        <v>0.272</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3161,10 +3128,10 @@
         <v>495</v>
       </c>
       <c r="F18">
-        <v>72.7</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="G18" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H18" t="s">
         <v>495</v>
@@ -3196,22 +3163,22 @@
         <v>28</v>
       </c>
       <c r="F19">
-        <v>74.2</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="G19" t="s">
-        <v>708</v>
-      </c>
-      <c r="H19" t="s">
-        <v>712</v>
-      </c>
-      <c r="I19" t="s">
-        <v>712</v>
-      </c>
-      <c r="J19" t="s">
-        <v>712</v>
-      </c>
-      <c r="K19" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H19">
+        <v>74</v>
+      </c>
+      <c r="I19">
+        <v>0.396</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>0.375</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3231,10 +3198,10 @@
         <v>495</v>
       </c>
       <c r="F20">
-        <v>51</v>
+        <v>44.2</v>
       </c>
       <c r="G20" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H20" t="s">
         <v>495</v>
@@ -3266,22 +3233,22 @@
         <v>30</v>
       </c>
       <c r="F21">
-        <v>80.5</v>
+        <v>90.2</v>
       </c>
       <c r="G21" t="s">
-        <v>708</v>
-      </c>
-      <c r="H21" t="s">
-        <v>712</v>
-      </c>
-      <c r="I21" t="s">
-        <v>712</v>
-      </c>
-      <c r="J21" t="s">
-        <v>712</v>
-      </c>
-      <c r="K21" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H21">
+        <v>58.7</v>
+      </c>
+      <c r="I21">
+        <v>0.438</v>
+      </c>
+      <c r="J21">
+        <v>23</v>
+      </c>
+      <c r="K21">
+        <v>0.448</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3301,10 +3268,10 @@
         <v>495</v>
       </c>
       <c r="F22">
-        <v>77.59999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="G22" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H22" t="s">
         <v>495</v>
@@ -3336,22 +3303,22 @@
         <v>32</v>
       </c>
       <c r="F23">
-        <v>121.3</v>
+        <v>109.3</v>
       </c>
       <c r="G23" t="s">
-        <v>708</v>
-      </c>
-      <c r="H23" t="s">
-        <v>712</v>
-      </c>
-      <c r="I23" t="s">
-        <v>712</v>
-      </c>
-      <c r="J23" t="s">
-        <v>712</v>
-      </c>
-      <c r="K23" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H23">
+        <v>71.3</v>
+      </c>
+      <c r="I23">
+        <v>0.584</v>
+      </c>
+      <c r="J23">
+        <v>27.3</v>
+      </c>
+      <c r="K23">
+        <v>0.368</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3371,22 +3338,22 @@
         <v>33</v>
       </c>
       <c r="F24">
-        <v>93.59999999999999</v>
+        <v>102.8</v>
       </c>
       <c r="G24" t="s">
-        <v>708</v>
-      </c>
-      <c r="H24" t="s">
-        <v>712</v>
-      </c>
-      <c r="I24" t="s">
-        <v>712</v>
-      </c>
-      <c r="J24" t="s">
-        <v>712</v>
-      </c>
-      <c r="K24" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H24">
+        <v>57.3</v>
+      </c>
+      <c r="I24">
+        <v>0.477</v>
+      </c>
+      <c r="J24">
+        <v>14.7</v>
+      </c>
+      <c r="K24">
+        <v>0.169</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3406,10 +3373,10 @@
         <v>495</v>
       </c>
       <c r="F25">
-        <v>54</v>
+        <v>62.5</v>
       </c>
       <c r="G25" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H25" t="s">
         <v>495</v>
@@ -3441,10 +3408,10 @@
         <v>495</v>
       </c>
       <c r="F26">
-        <v>63</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="G26" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H26" t="s">
         <v>495</v>
@@ -3476,10 +3443,10 @@
         <v>495</v>
       </c>
       <c r="F27">
-        <v>44.8</v>
+        <v>33.8</v>
       </c>
       <c r="G27" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H27" t="s">
         <v>495</v>
@@ -3511,22 +3478,22 @@
         <v>37</v>
       </c>
       <c r="F28">
-        <v>95.09999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G28" t="s">
-        <v>708</v>
-      </c>
-      <c r="H28" t="s">
-        <v>713</v>
-      </c>
-      <c r="I28" t="s">
-        <v>717</v>
-      </c>
-      <c r="J28" t="s">
-        <v>721</v>
-      </c>
-      <c r="K28" t="s">
-        <v>718</v>
+        <v>709</v>
+      </c>
+      <c r="H28">
+        <v>70</v>
+      </c>
+      <c r="I28">
+        <v>0.119</v>
+      </c>
+      <c r="J28">
+        <v>39.3</v>
+      </c>
+      <c r="K28">
+        <v>0.59</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3546,22 +3513,22 @@
         <v>673</v>
       </c>
       <c r="F29">
-        <v>95.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="G29" t="s">
-        <v>708</v>
-      </c>
-      <c r="H29" t="s">
-        <v>712</v>
-      </c>
-      <c r="I29" t="s">
-        <v>712</v>
-      </c>
-      <c r="J29" t="s">
-        <v>712</v>
-      </c>
-      <c r="K29" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H29">
+        <v>59.7</v>
+      </c>
+      <c r="I29">
+        <v>0.486</v>
+      </c>
+      <c r="J29">
+        <v>31.3</v>
+      </c>
+      <c r="K29">
+        <v>0.403</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3581,10 +3548,10 @@
         <v>495</v>
       </c>
       <c r="F30">
-        <v>80.3</v>
+        <v>65.3</v>
       </c>
       <c r="G30" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H30" t="s">
         <v>495</v>
@@ -3616,10 +3583,10 @@
         <v>495</v>
       </c>
       <c r="F31">
-        <v>57.7</v>
+        <v>48.3</v>
       </c>
       <c r="G31" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H31" t="s">
         <v>495</v>
@@ -3651,10 +3618,10 @@
         <v>495</v>
       </c>
       <c r="F32">
-        <v>47.5</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H32" t="s">
         <v>495</v>
@@ -3686,22 +3653,22 @@
         <v>42</v>
       </c>
       <c r="F33">
-        <v>82.3</v>
+        <v>108.2</v>
       </c>
       <c r="G33" t="s">
-        <v>708</v>
-      </c>
-      <c r="H33" t="s">
-        <v>712</v>
-      </c>
-      <c r="I33" t="s">
-        <v>712</v>
-      </c>
-      <c r="J33" t="s">
-        <v>712</v>
-      </c>
-      <c r="K33" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H33">
+        <v>64.3</v>
+      </c>
+      <c r="I33">
+        <v>0.632</v>
+      </c>
+      <c r="J33">
+        <v>16.3</v>
+      </c>
+      <c r="K33">
+        <v>0.254</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3721,22 +3688,22 @@
         <v>674</v>
       </c>
       <c r="F34">
-        <v>85</v>
+        <v>80.3</v>
       </c>
       <c r="G34" t="s">
-        <v>708</v>
-      </c>
-      <c r="H34" t="s">
-        <v>712</v>
-      </c>
-      <c r="I34" t="s">
-        <v>712</v>
-      </c>
-      <c r="J34" t="s">
-        <v>712</v>
-      </c>
-      <c r="K34" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H34">
+        <v>77.3</v>
+      </c>
+      <c r="I34">
+        <v>0.647</v>
+      </c>
+      <c r="J34">
+        <v>29.7</v>
+      </c>
+      <c r="K34">
+        <v>0.362</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3756,22 +3723,22 @@
         <v>44</v>
       </c>
       <c r="F35">
-        <v>64.40000000000001</v>
+        <v>64.8</v>
       </c>
       <c r="G35" t="s">
-        <v>708</v>
-      </c>
-      <c r="H35" t="s">
-        <v>712</v>
-      </c>
-      <c r="I35" t="s">
-        <v>712</v>
-      </c>
-      <c r="J35" t="s">
-        <v>712</v>
-      </c>
-      <c r="K35" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H35">
+        <v>67.3</v>
+      </c>
+      <c r="I35">
+        <v>0.238</v>
+      </c>
+      <c r="J35">
+        <v>32.7</v>
+      </c>
+      <c r="K35">
+        <v>0.48</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3791,22 +3758,22 @@
         <v>45</v>
       </c>
       <c r="F36">
-        <v>74.90000000000001</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="G36" t="s">
-        <v>708</v>
-      </c>
-      <c r="H36" t="s">
-        <v>712</v>
-      </c>
-      <c r="I36" t="s">
-        <v>712</v>
-      </c>
-      <c r="J36" t="s">
-        <v>712</v>
-      </c>
-      <c r="K36" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H36">
+        <v>69</v>
+      </c>
+      <c r="I36">
+        <v>0.517</v>
+      </c>
+      <c r="J36">
+        <v>36.3</v>
+      </c>
+      <c r="K36">
+        <v>0.484</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3826,10 +3793,10 @@
         <v>495</v>
       </c>
       <c r="F37">
-        <v>65.5</v>
+        <v>69.3</v>
       </c>
       <c r="G37" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H37" t="s">
         <v>495</v>
@@ -3861,22 +3828,22 @@
         <v>675</v>
       </c>
       <c r="F38">
-        <v>95.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="G38" t="s">
-        <v>708</v>
-      </c>
-      <c r="H38" t="s">
-        <v>714</v>
-      </c>
-      <c r="I38" t="s">
-        <v>718</v>
-      </c>
-      <c r="J38" t="s">
-        <v>722</v>
-      </c>
-      <c r="K38" t="s">
-        <v>717</v>
+        <v>709</v>
+      </c>
+      <c r="H38">
+        <v>74</v>
+      </c>
+      <c r="I38">
+        <v>0.45</v>
+      </c>
+      <c r="J38">
+        <v>32</v>
+      </c>
+      <c r="K38">
+        <v>0.487</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3896,22 +3863,22 @@
         <v>48</v>
       </c>
       <c r="F39">
-        <v>86.59999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="G39" t="s">
-        <v>708</v>
-      </c>
-      <c r="H39" t="s">
-        <v>712</v>
-      </c>
-      <c r="I39" t="s">
-        <v>712</v>
-      </c>
-      <c r="J39" t="s">
-        <v>712</v>
-      </c>
-      <c r="K39" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H39">
+        <v>57</v>
+      </c>
+      <c r="I39">
+        <v>0.427</v>
+      </c>
+      <c r="J39">
+        <v>23</v>
+      </c>
+      <c r="K39">
+        <v>0.367</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3931,22 +3898,22 @@
         <v>676</v>
       </c>
       <c r="F40">
-        <v>82.5</v>
+        <v>95.3</v>
       </c>
       <c r="G40" t="s">
-        <v>708</v>
-      </c>
-      <c r="H40" t="s">
-        <v>712</v>
-      </c>
-      <c r="I40" t="s">
-        <v>712</v>
-      </c>
-      <c r="J40" t="s">
-        <v>712</v>
-      </c>
-      <c r="K40" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H40">
+        <v>75.3</v>
+      </c>
+      <c r="I40">
+        <v>0.456</v>
+      </c>
+      <c r="J40">
+        <v>27.3</v>
+      </c>
+      <c r="K40">
+        <v>0.404</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3966,22 +3933,22 @@
         <v>50</v>
       </c>
       <c r="F41">
-        <v>84.40000000000001</v>
+        <v>114.3</v>
       </c>
       <c r="G41" t="s">
-        <v>708</v>
-      </c>
-      <c r="H41" t="s">
-        <v>712</v>
-      </c>
-      <c r="I41" t="s">
-        <v>712</v>
-      </c>
-      <c r="J41" t="s">
-        <v>712</v>
-      </c>
-      <c r="K41" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H41">
+        <v>67</v>
+      </c>
+      <c r="I41">
+        <v>0.502</v>
+      </c>
+      <c r="J41">
+        <v>17.7</v>
+      </c>
+      <c r="K41">
+        <v>0.315</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -4001,22 +3968,22 @@
         <v>51</v>
       </c>
       <c r="F42">
-        <v>82.2</v>
+        <v>102.2</v>
       </c>
       <c r="G42" t="s">
-        <v>708</v>
-      </c>
-      <c r="H42" t="s">
-        <v>712</v>
-      </c>
-      <c r="I42" t="s">
-        <v>712</v>
-      </c>
-      <c r="J42" t="s">
-        <v>712</v>
-      </c>
-      <c r="K42" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H42">
+        <v>76.3</v>
+      </c>
+      <c r="I42">
+        <v>0.498</v>
+      </c>
+      <c r="J42">
+        <v>20.7</v>
+      </c>
+      <c r="K42">
+        <v>0.313</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -4036,22 +4003,22 @@
         <v>52</v>
       </c>
       <c r="F43">
-        <v>83.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="G43" t="s">
-        <v>708</v>
-      </c>
-      <c r="H43" t="s">
-        <v>712</v>
-      </c>
-      <c r="I43" t="s">
-        <v>712</v>
-      </c>
-      <c r="J43" t="s">
-        <v>712</v>
-      </c>
-      <c r="K43" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H43">
+        <v>62</v>
+      </c>
+      <c r="I43">
+        <v>0.355</v>
+      </c>
+      <c r="J43">
+        <v>21</v>
+      </c>
+      <c r="K43">
+        <v>0.339</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -4071,10 +4038,10 @@
         <v>495</v>
       </c>
       <c r="F44">
-        <v>67.8</v>
+        <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H44" t="s">
         <v>495</v>
@@ -4106,22 +4073,22 @@
         <v>54</v>
       </c>
       <c r="F45">
-        <v>80.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="G45" t="s">
-        <v>708</v>
-      </c>
-      <c r="H45" t="s">
-        <v>712</v>
-      </c>
-      <c r="I45" t="s">
-        <v>712</v>
-      </c>
-      <c r="J45" t="s">
-        <v>712</v>
-      </c>
-      <c r="K45" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H45">
+        <v>72.7</v>
+      </c>
+      <c r="I45">
+        <v>0.399</v>
+      </c>
+      <c r="J45">
+        <v>27</v>
+      </c>
+      <c r="K45">
+        <v>0.401</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -4141,10 +4108,10 @@
         <v>495</v>
       </c>
       <c r="F46">
-        <v>55.1</v>
+        <v>64.2</v>
       </c>
       <c r="G46" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H46" t="s">
         <v>495</v>
@@ -4214,7 +4181,7 @@
         <v>69.09999999999999</v>
       </c>
       <c r="G48" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H48" t="s">
         <v>495</v>
@@ -4246,10 +4213,10 @@
         <v>495</v>
       </c>
       <c r="F49">
-        <v>66.7</v>
+        <v>69.7</v>
       </c>
       <c r="G49" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H49" t="s">
         <v>495</v>
@@ -4281,22 +4248,22 @@
         <v>677</v>
       </c>
       <c r="F50">
-        <v>86</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="G50" t="s">
-        <v>708</v>
-      </c>
-      <c r="H50" t="s">
-        <v>712</v>
-      </c>
-      <c r="I50" t="s">
-        <v>712</v>
-      </c>
-      <c r="J50" t="s">
-        <v>712</v>
-      </c>
-      <c r="K50" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H50">
+        <v>70.7</v>
+      </c>
+      <c r="I50">
+        <v>0.368</v>
+      </c>
+      <c r="J50">
+        <v>29</v>
+      </c>
+      <c r="K50">
+        <v>0.435</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -4316,10 +4283,10 @@
         <v>495</v>
       </c>
       <c r="F51">
-        <v>34.3</v>
+        <v>49.9</v>
       </c>
       <c r="G51" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H51" t="s">
         <v>495</v>
@@ -4351,22 +4318,22 @@
         <v>678</v>
       </c>
       <c r="F52">
-        <v>95.2</v>
+        <v>84.8</v>
       </c>
       <c r="G52" t="s">
-        <v>708</v>
-      </c>
-      <c r="H52" t="s">
-        <v>712</v>
-      </c>
-      <c r="I52" t="s">
-        <v>712</v>
-      </c>
-      <c r="J52" t="s">
-        <v>712</v>
-      </c>
-      <c r="K52" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H52">
+        <v>73.3</v>
+      </c>
+      <c r="I52">
+        <v>0.364</v>
+      </c>
+      <c r="J52">
+        <v>28.7</v>
+      </c>
+      <c r="K52">
+        <v>0.448</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -4386,22 +4353,22 @@
         <v>62</v>
       </c>
       <c r="F53">
-        <v>88.09999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="G53" t="s">
-        <v>708</v>
-      </c>
-      <c r="H53" t="s">
-        <v>712</v>
-      </c>
-      <c r="I53" t="s">
-        <v>712</v>
-      </c>
-      <c r="J53" t="s">
-        <v>712</v>
-      </c>
-      <c r="K53" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H53">
+        <v>63.7</v>
+      </c>
+      <c r="I53">
+        <v>0.372</v>
+      </c>
+      <c r="J53">
+        <v>33.3</v>
+      </c>
+      <c r="K53">
+        <v>0.437</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -4421,22 +4388,22 @@
         <v>63</v>
       </c>
       <c r="F54">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="G54" t="s">
-        <v>708</v>
-      </c>
-      <c r="H54" t="s">
-        <v>712</v>
-      </c>
-      <c r="I54" t="s">
-        <v>712</v>
-      </c>
-      <c r="J54" t="s">
-        <v>712</v>
-      </c>
-      <c r="K54" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H54">
+        <v>63.7</v>
+      </c>
+      <c r="I54">
+        <v>0.283</v>
+      </c>
+      <c r="J54">
+        <v>32</v>
+      </c>
+      <c r="K54">
+        <v>0.475</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -4456,22 +4423,22 @@
         <v>64</v>
       </c>
       <c r="F55">
-        <v>83.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="G55" t="s">
-        <v>708</v>
-      </c>
-      <c r="H55" t="s">
-        <v>712</v>
-      </c>
-      <c r="I55" t="s">
-        <v>712</v>
-      </c>
-      <c r="J55" t="s">
-        <v>712</v>
-      </c>
-      <c r="K55" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H55">
+        <v>71.7</v>
+      </c>
+      <c r="I55">
+        <v>0.307</v>
+      </c>
+      <c r="J55">
+        <v>20.7</v>
+      </c>
+      <c r="K55">
+        <v>0.279</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -4491,22 +4458,22 @@
         <v>65</v>
       </c>
       <c r="F56">
-        <v>109.5</v>
+        <v>99.5</v>
       </c>
       <c r="G56" t="s">
-        <v>708</v>
-      </c>
-      <c r="H56" t="s">
-        <v>712</v>
-      </c>
-      <c r="I56" t="s">
-        <v>712</v>
-      </c>
-      <c r="J56" t="s">
-        <v>712</v>
-      </c>
-      <c r="K56" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H56">
+        <v>71.7</v>
+      </c>
+      <c r="I56">
+        <v>0.451</v>
+      </c>
+      <c r="J56">
+        <v>25</v>
+      </c>
+      <c r="K56">
+        <v>0.393</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -4526,10 +4493,10 @@
         <v>495</v>
       </c>
       <c r="F57">
-        <v>46.2</v>
+        <v>52.2</v>
       </c>
       <c r="G57" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H57" t="s">
         <v>495</v>
@@ -4561,22 +4528,22 @@
         <v>67</v>
       </c>
       <c r="F58">
-        <v>70.40000000000001</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s">
-        <v>708</v>
-      </c>
-      <c r="H58" t="s">
-        <v>712</v>
-      </c>
-      <c r="I58" t="s">
-        <v>712</v>
-      </c>
-      <c r="J58" t="s">
-        <v>712</v>
-      </c>
-      <c r="K58" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H58">
+        <v>79.3</v>
+      </c>
+      <c r="I58">
+        <v>0.324</v>
+      </c>
+      <c r="J58">
+        <v>54.7</v>
+      </c>
+      <c r="K58">
+        <v>0.678</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4596,22 +4563,22 @@
         <v>679</v>
       </c>
       <c r="F59">
-        <v>76.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="G59" t="s">
-        <v>708</v>
-      </c>
-      <c r="H59" t="s">
-        <v>712</v>
-      </c>
-      <c r="I59" t="s">
-        <v>712</v>
-      </c>
-      <c r="J59" t="s">
-        <v>712</v>
-      </c>
-      <c r="K59" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H59">
+        <v>78.3</v>
+      </c>
+      <c r="I59">
+        <v>0.417</v>
+      </c>
+      <c r="J59">
+        <v>31</v>
+      </c>
+      <c r="K59">
+        <v>0.408</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4631,22 +4598,22 @@
         <v>69</v>
       </c>
       <c r="F60">
-        <v>101.2</v>
+        <v>103.6</v>
       </c>
       <c r="G60" t="s">
-        <v>708</v>
-      </c>
-      <c r="H60" t="s">
-        <v>712</v>
-      </c>
-      <c r="I60" t="s">
-        <v>712</v>
-      </c>
-      <c r="J60" t="s">
-        <v>712</v>
-      </c>
-      <c r="K60" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H60">
+        <v>73.7</v>
+      </c>
+      <c r="I60">
+        <v>0.326</v>
+      </c>
+      <c r="J60">
+        <v>22.7</v>
+      </c>
+      <c r="K60">
+        <v>0.273</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4666,10 +4633,10 @@
         <v>495</v>
       </c>
       <c r="F61">
-        <v>52.5</v>
+        <v>54.6</v>
       </c>
       <c r="G61" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H61" t="s">
         <v>495</v>
@@ -4701,10 +4668,10 @@
         <v>495</v>
       </c>
       <c r="F62">
-        <v>56.3</v>
+        <v>49.6</v>
       </c>
       <c r="G62" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H62" t="s">
         <v>495</v>
@@ -4736,22 +4703,22 @@
         <v>72</v>
       </c>
       <c r="F63">
-        <v>94.3</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="G63" t="s">
-        <v>708</v>
-      </c>
-      <c r="H63" t="s">
-        <v>712</v>
-      </c>
-      <c r="I63" t="s">
-        <v>712</v>
-      </c>
-      <c r="J63" t="s">
-        <v>712</v>
-      </c>
-      <c r="K63" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H63">
+        <v>59</v>
+      </c>
+      <c r="I63">
+        <v>0.254</v>
+      </c>
+      <c r="J63">
+        <v>28</v>
+      </c>
+      <c r="K63">
+        <v>0.394</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4771,10 +4738,10 @@
         <v>495</v>
       </c>
       <c r="F64">
-        <v>43.9</v>
+        <v>36.9</v>
       </c>
       <c r="G64" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H64" t="s">
         <v>495</v>
@@ -4806,22 +4773,22 @@
         <v>74</v>
       </c>
       <c r="F65">
-        <v>106.7</v>
+        <v>100.9</v>
       </c>
       <c r="G65" t="s">
-        <v>708</v>
-      </c>
-      <c r="H65" t="s">
-        <v>712</v>
-      </c>
-      <c r="I65" t="s">
-        <v>712</v>
-      </c>
-      <c r="J65" t="s">
-        <v>712</v>
-      </c>
-      <c r="K65" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H65">
+        <v>63</v>
+      </c>
+      <c r="I65">
+        <v>0.402</v>
+      </c>
+      <c r="J65">
+        <v>22.7</v>
+      </c>
+      <c r="K65">
+        <v>0.301</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4841,22 +4808,22 @@
         <v>75</v>
       </c>
       <c r="F66">
-        <v>68.59999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="G66" t="s">
-        <v>708</v>
-      </c>
-      <c r="H66" t="s">
-        <v>712</v>
-      </c>
-      <c r="I66" t="s">
-        <v>712</v>
-      </c>
-      <c r="J66" t="s">
-        <v>712</v>
-      </c>
-      <c r="K66" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H66">
+        <v>74.7</v>
+      </c>
+      <c r="I66">
+        <v>0.585</v>
+      </c>
+      <c r="J66">
+        <v>25</v>
+      </c>
+      <c r="K66">
+        <v>0.355</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4876,22 +4843,22 @@
         <v>76</v>
       </c>
       <c r="F67">
-        <v>94.7</v>
+        <v>78.8</v>
       </c>
       <c r="G67" t="s">
-        <v>708</v>
-      </c>
-      <c r="H67" t="s">
-        <v>712</v>
-      </c>
-      <c r="I67" t="s">
-        <v>712</v>
-      </c>
-      <c r="J67" t="s">
-        <v>712</v>
-      </c>
-      <c r="K67" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H67">
+        <v>75.3</v>
+      </c>
+      <c r="I67">
+        <v>0.487</v>
+      </c>
+      <c r="J67">
+        <v>30.3</v>
+      </c>
+      <c r="K67">
+        <v>0.532</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4946,10 +4913,10 @@
         <v>495</v>
       </c>
       <c r="F69">
-        <v>44.8</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H69" t="s">
         <v>495</v>
@@ -4981,10 +4948,10 @@
         <v>495</v>
       </c>
       <c r="F70">
-        <v>51.1</v>
+        <v>37.5</v>
       </c>
       <c r="G70" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H70" t="s">
         <v>495</v>
@@ -5016,22 +4983,22 @@
         <v>680</v>
       </c>
       <c r="F71">
-        <v>81</v>
+        <v>89.5</v>
       </c>
       <c r="G71" t="s">
-        <v>708</v>
-      </c>
-      <c r="H71" t="s">
-        <v>712</v>
-      </c>
-      <c r="I71" t="s">
-        <v>712</v>
-      </c>
-      <c r="J71" t="s">
-        <v>712</v>
-      </c>
-      <c r="K71" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H71">
+        <v>78.3</v>
+      </c>
+      <c r="I71">
+        <v>0.221</v>
+      </c>
+      <c r="J71">
+        <v>31.7</v>
+      </c>
+      <c r="K71">
+        <v>0.436</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -5051,22 +5018,22 @@
         <v>681</v>
       </c>
       <c r="F72">
-        <v>109</v>
+        <v>103.1</v>
       </c>
       <c r="G72" t="s">
-        <v>708</v>
-      </c>
-      <c r="H72" t="s">
-        <v>712</v>
-      </c>
-      <c r="I72" t="s">
-        <v>712</v>
-      </c>
-      <c r="J72" t="s">
-        <v>712</v>
-      </c>
-      <c r="K72" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H72">
+        <v>73.7</v>
+      </c>
+      <c r="I72">
+        <v>0.267</v>
+      </c>
+      <c r="J72">
+        <v>14</v>
+      </c>
+      <c r="K72">
+        <v>0.225</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -5086,22 +5053,22 @@
         <v>682</v>
       </c>
       <c r="F73">
-        <v>91.3</v>
+        <v>83.5</v>
       </c>
       <c r="G73" t="s">
-        <v>708</v>
-      </c>
-      <c r="H73" t="s">
-        <v>712</v>
-      </c>
-      <c r="I73" t="s">
-        <v>712</v>
-      </c>
-      <c r="J73" t="s">
-        <v>712</v>
-      </c>
-      <c r="K73" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H73">
+        <v>49.7</v>
+      </c>
+      <c r="I73">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="J73">
+        <v>27.3</v>
+      </c>
+      <c r="K73">
+        <v>0.4</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -5121,10 +5088,10 @@
         <v>495</v>
       </c>
       <c r="F74">
-        <v>45.2</v>
+        <v>49.2</v>
       </c>
       <c r="G74" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H74" t="s">
         <v>495</v>
@@ -5156,10 +5123,10 @@
         <v>495</v>
       </c>
       <c r="F75">
-        <v>62</v>
+        <v>60.7</v>
       </c>
       <c r="G75" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H75" t="s">
         <v>495</v>
@@ -5191,22 +5158,22 @@
         <v>85</v>
       </c>
       <c r="F76">
-        <v>81.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="G76" t="s">
-        <v>708</v>
-      </c>
-      <c r="H76" t="s">
-        <v>712</v>
-      </c>
-      <c r="I76" t="s">
-        <v>712</v>
-      </c>
-      <c r="J76" t="s">
-        <v>712</v>
-      </c>
-      <c r="K76" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H76">
+        <v>60</v>
+      </c>
+      <c r="I76">
+        <v>0.172</v>
+      </c>
+      <c r="J76">
+        <v>25.7</v>
+      </c>
+      <c r="K76">
+        <v>0.368</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -5226,22 +5193,22 @@
         <v>86</v>
       </c>
       <c r="F77">
-        <v>92.5</v>
+        <v>91.2</v>
       </c>
       <c r="G77" t="s">
-        <v>708</v>
-      </c>
-      <c r="H77" t="s">
-        <v>712</v>
-      </c>
-      <c r="I77" t="s">
-        <v>712</v>
-      </c>
-      <c r="J77" t="s">
-        <v>712</v>
-      </c>
-      <c r="K77" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H77">
+        <v>73.3</v>
+      </c>
+      <c r="I77">
+        <v>0.3</v>
+      </c>
+      <c r="J77">
+        <v>31.3</v>
+      </c>
+      <c r="K77">
+        <v>0.492</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -5261,22 +5228,22 @@
         <v>683</v>
       </c>
       <c r="F78">
-        <v>111.7</v>
+        <v>113.1</v>
       </c>
       <c r="G78" t="s">
-        <v>708</v>
-      </c>
-      <c r="H78" t="s">
-        <v>712</v>
-      </c>
-      <c r="I78" t="s">
-        <v>712</v>
-      </c>
-      <c r="J78" t="s">
-        <v>712</v>
-      </c>
-      <c r="K78" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H78">
+        <v>57.3</v>
+      </c>
+      <c r="I78">
+        <v>0.459</v>
+      </c>
+      <c r="J78">
+        <v>11.7</v>
+      </c>
+      <c r="K78">
+        <v>0.182</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5296,22 +5263,22 @@
         <v>684</v>
       </c>
       <c r="F79">
-        <v>70</v>
+        <v>56.2</v>
       </c>
       <c r="G79" t="s">
-        <v>708</v>
-      </c>
-      <c r="H79" t="s">
-        <v>712</v>
-      </c>
-      <c r="I79" t="s">
-        <v>712</v>
-      </c>
-      <c r="J79" t="s">
-        <v>712</v>
-      </c>
-      <c r="K79" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H79">
+        <v>73</v>
+      </c>
+      <c r="I79">
+        <v>0.169</v>
+      </c>
+      <c r="J79">
+        <v>48.3</v>
+      </c>
+      <c r="K79">
+        <v>0.759</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -5331,22 +5298,22 @@
         <v>89</v>
       </c>
       <c r="F80">
-        <v>117.6</v>
+        <v>113.4</v>
       </c>
       <c r="G80" t="s">
-        <v>708</v>
-      </c>
-      <c r="H80" t="s">
-        <v>712</v>
-      </c>
-      <c r="I80" t="s">
-        <v>712</v>
-      </c>
-      <c r="J80" t="s">
-        <v>712</v>
-      </c>
-      <c r="K80" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H80">
+        <v>70.7</v>
+      </c>
+      <c r="I80">
+        <v>0.519</v>
+      </c>
+      <c r="J80">
+        <v>23.7</v>
+      </c>
+      <c r="K80">
+        <v>0.345</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -5366,10 +5333,10 @@
         <v>495</v>
       </c>
       <c r="F81">
-        <v>40.7</v>
+        <v>41.2</v>
       </c>
       <c r="G81" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H81" t="s">
         <v>495</v>
@@ -5401,22 +5368,22 @@
         <v>91</v>
       </c>
       <c r="F82">
-        <v>93.90000000000001</v>
+        <v>104.4</v>
       </c>
       <c r="G82" t="s">
-        <v>708</v>
-      </c>
-      <c r="H82" t="s">
-        <v>712</v>
-      </c>
-      <c r="I82" t="s">
-        <v>712</v>
-      </c>
-      <c r="J82" t="s">
-        <v>712</v>
-      </c>
-      <c r="K82" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H82">
+        <v>70</v>
+      </c>
+      <c r="I82">
+        <v>0.538</v>
+      </c>
+      <c r="J82">
+        <v>20.3</v>
+      </c>
+      <c r="K82">
+        <v>0.305</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5436,22 +5403,22 @@
         <v>92</v>
       </c>
       <c r="F83">
-        <v>78.8</v>
+        <v>88.8</v>
       </c>
       <c r="G83" t="s">
-        <v>708</v>
-      </c>
-      <c r="H83" t="s">
-        <v>712</v>
-      </c>
-      <c r="I83" t="s">
-        <v>712</v>
-      </c>
-      <c r="J83" t="s">
-        <v>712</v>
-      </c>
-      <c r="K83" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H83">
+        <v>68.7</v>
+      </c>
+      <c r="I83">
+        <v>0.218</v>
+      </c>
+      <c r="J83">
+        <v>31.7</v>
+      </c>
+      <c r="K83">
+        <v>0.477</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -5471,22 +5438,22 @@
         <v>685</v>
       </c>
       <c r="F84">
-        <v>77.2</v>
+        <v>63.7</v>
       </c>
       <c r="G84" t="s">
-        <v>708</v>
-      </c>
-      <c r="H84" t="s">
-        <v>712</v>
-      </c>
-      <c r="I84" t="s">
-        <v>712</v>
-      </c>
-      <c r="J84" t="s">
-        <v>712</v>
-      </c>
-      <c r="K84" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H84">
+        <v>77.7</v>
+      </c>
+      <c r="I84">
+        <v>0.318</v>
+      </c>
+      <c r="J84">
+        <v>33.7</v>
+      </c>
+      <c r="K84">
+        <v>0.483</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -5506,10 +5473,10 @@
         <v>495</v>
       </c>
       <c r="F85">
-        <v>51.4</v>
+        <v>57.2</v>
       </c>
       <c r="G85" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H85" t="s">
         <v>495</v>
@@ -5541,10 +5508,10 @@
         <v>495</v>
       </c>
       <c r="F86">
-        <v>54.6</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="G86" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H86" t="s">
         <v>495</v>
@@ -5576,10 +5543,10 @@
         <v>495</v>
       </c>
       <c r="F87">
-        <v>63.7</v>
+        <v>50.4</v>
       </c>
       <c r="G87" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H87" t="s">
         <v>495</v>
@@ -5611,22 +5578,22 @@
         <v>686</v>
       </c>
       <c r="F88">
-        <v>72.40000000000001</v>
+        <v>60.4</v>
       </c>
       <c r="G88" t="s">
-        <v>708</v>
-      </c>
-      <c r="H88" t="s">
-        <v>712</v>
-      </c>
-      <c r="I88" t="s">
-        <v>712</v>
-      </c>
-      <c r="J88" t="s">
-        <v>712</v>
-      </c>
-      <c r="K88" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H88">
+        <v>67</v>
+      </c>
+      <c r="I88">
+        <v>0.308</v>
+      </c>
+      <c r="J88">
+        <v>36</v>
+      </c>
+      <c r="K88">
+        <v>0.571</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -5646,10 +5613,10 @@
         <v>495</v>
       </c>
       <c r="F89">
-        <v>64.59999999999999</v>
+        <v>61.5</v>
       </c>
       <c r="G89" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H89" t="s">
         <v>495</v>
@@ -5681,22 +5648,22 @@
         <v>687</v>
       </c>
       <c r="F90">
-        <v>68.8</v>
+        <v>63.4</v>
       </c>
       <c r="G90" t="s">
-        <v>708</v>
-      </c>
-      <c r="H90" t="s">
-        <v>712</v>
-      </c>
-      <c r="I90" t="s">
-        <v>712</v>
-      </c>
-      <c r="J90" t="s">
-        <v>712</v>
-      </c>
-      <c r="K90" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H90">
+        <v>71.7</v>
+      </c>
+      <c r="I90">
+        <v>0.395</v>
+      </c>
+      <c r="J90">
+        <v>42</v>
+      </c>
+      <c r="K90">
+        <v>0.494</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -5715,23 +5682,23 @@
       <c r="E91" t="s">
         <v>100</v>
       </c>
-      <c r="F91">
-        <v>64.40000000000001</v>
+      <c r="F91" t="s">
+        <v>708</v>
       </c>
       <c r="G91" t="s">
         <v>708</v>
       </c>
-      <c r="H91" t="s">
-        <v>712</v>
-      </c>
-      <c r="I91" t="s">
-        <v>712</v>
-      </c>
-      <c r="J91" t="s">
-        <v>712</v>
-      </c>
-      <c r="K91" t="s">
-        <v>712</v>
+      <c r="H91">
+        <v>77</v>
+      </c>
+      <c r="I91">
+        <v>0.325</v>
+      </c>
+      <c r="J91">
+        <v>38</v>
+      </c>
+      <c r="K91">
+        <v>0.485</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -5751,10 +5718,10 @@
         <v>495</v>
       </c>
       <c r="F92">
-        <v>65.59999999999999</v>
+        <v>59.3</v>
       </c>
       <c r="G92" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H92" t="s">
         <v>495</v>
@@ -5786,10 +5753,10 @@
         <v>495</v>
       </c>
       <c r="F93">
-        <v>64.90000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="G93" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H93" t="s">
         <v>495</v>
@@ -5821,22 +5788,22 @@
         <v>103</v>
       </c>
       <c r="F94">
-        <v>85.8</v>
+        <v>92</v>
       </c>
       <c r="G94" t="s">
-        <v>708</v>
-      </c>
-      <c r="H94" t="s">
-        <v>712</v>
-      </c>
-      <c r="I94" t="s">
-        <v>712</v>
-      </c>
-      <c r="J94" t="s">
-        <v>712</v>
-      </c>
-      <c r="K94" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H94">
+        <v>64</v>
+      </c>
+      <c r="I94">
+        <v>0.359</v>
+      </c>
+      <c r="J94">
+        <v>16</v>
+      </c>
+      <c r="K94">
+        <v>0.215</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5856,22 +5823,22 @@
         <v>104</v>
       </c>
       <c r="F95">
-        <v>84.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="G95" t="s">
-        <v>708</v>
-      </c>
-      <c r="H95" t="s">
-        <v>712</v>
-      </c>
-      <c r="I95" t="s">
-        <v>712</v>
-      </c>
-      <c r="J95" t="s">
-        <v>712</v>
-      </c>
-      <c r="K95" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H95">
+        <v>68</v>
+      </c>
+      <c r="I95">
+        <v>0.284</v>
+      </c>
+      <c r="J95">
+        <v>18.3</v>
+      </c>
+      <c r="K95">
+        <v>0.274</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5891,22 +5858,22 @@
         <v>105</v>
       </c>
       <c r="F96">
-        <v>119.7</v>
+        <v>106</v>
       </c>
       <c r="G96" t="s">
-        <v>708</v>
-      </c>
-      <c r="H96" t="s">
-        <v>712</v>
-      </c>
-      <c r="I96" t="s">
-        <v>712</v>
-      </c>
-      <c r="J96" t="s">
-        <v>712</v>
-      </c>
-      <c r="K96" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H96">
+        <v>65</v>
+      </c>
+      <c r="I96">
+        <v>0.4</v>
+      </c>
+      <c r="J96">
+        <v>12</v>
+      </c>
+      <c r="K96">
+        <v>0.207</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5926,22 +5893,22 @@
         <v>688</v>
       </c>
       <c r="F97">
-        <v>67.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="G97" t="s">
-        <v>708</v>
-      </c>
-      <c r="H97" t="s">
-        <v>712</v>
-      </c>
-      <c r="I97" t="s">
-        <v>712</v>
-      </c>
-      <c r="J97" t="s">
-        <v>712</v>
-      </c>
-      <c r="K97" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H97">
+        <v>70.3</v>
+      </c>
+      <c r="I97">
+        <v>0.483</v>
+      </c>
+      <c r="J97">
+        <v>32</v>
+      </c>
+      <c r="K97">
+        <v>0.409</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5961,10 +5928,10 @@
         <v>495</v>
       </c>
       <c r="F98">
-        <v>64</v>
+        <v>49.5</v>
       </c>
       <c r="G98" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H98" t="s">
         <v>495</v>
@@ -5996,10 +5963,10 @@
         <v>495</v>
       </c>
       <c r="F99">
-        <v>37.1</v>
+        <v>58.6</v>
       </c>
       <c r="G99" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H99" t="s">
         <v>495</v>
@@ -6034,19 +6001,19 @@
         <v>72.40000000000001</v>
       </c>
       <c r="G100" t="s">
-        <v>708</v>
-      </c>
-      <c r="H100" t="s">
-        <v>712</v>
-      </c>
-      <c r="I100" t="s">
-        <v>712</v>
-      </c>
-      <c r="J100" t="s">
-        <v>712</v>
-      </c>
-      <c r="K100" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H100">
+        <v>68</v>
+      </c>
+      <c r="I100">
+        <v>0.417</v>
+      </c>
+      <c r="J100">
+        <v>32</v>
+      </c>
+      <c r="K100">
+        <v>0.455</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -6066,22 +6033,22 @@
         <v>110</v>
       </c>
       <c r="F101">
-        <v>88.2</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="G101" t="s">
-        <v>708</v>
-      </c>
-      <c r="H101" t="s">
-        <v>712</v>
-      </c>
-      <c r="I101" t="s">
-        <v>712</v>
-      </c>
-      <c r="J101" t="s">
-        <v>712</v>
-      </c>
-      <c r="K101" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H101">
+        <v>60</v>
+      </c>
+      <c r="I101">
+        <v>0.633</v>
+      </c>
+      <c r="J101">
+        <v>25</v>
+      </c>
+      <c r="K101">
+        <v>0.306</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -6101,10 +6068,10 @@
         <v>495</v>
       </c>
       <c r="F102">
-        <v>33.1</v>
+        <v>26.3</v>
       </c>
       <c r="G102" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H102" t="s">
         <v>495</v>
@@ -6136,10 +6103,10 @@
         <v>495</v>
       </c>
       <c r="F103">
-        <v>51.8</v>
+        <v>42.5</v>
       </c>
       <c r="G103" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H103" t="s">
         <v>495</v>
@@ -6171,10 +6138,10 @@
         <v>495</v>
       </c>
       <c r="F104">
-        <v>51.2</v>
+        <v>59.8</v>
       </c>
       <c r="G104" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H104" t="s">
         <v>495</v>
@@ -6206,22 +6173,22 @@
         <v>114</v>
       </c>
       <c r="F105">
-        <v>61</v>
+        <v>71.7</v>
       </c>
       <c r="G105" t="s">
-        <v>708</v>
-      </c>
-      <c r="H105" t="s">
-        <v>712</v>
-      </c>
-      <c r="I105" t="s">
-        <v>712</v>
-      </c>
-      <c r="J105" t="s">
-        <v>712</v>
-      </c>
-      <c r="K105" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H105">
+        <v>62.3</v>
+      </c>
+      <c r="I105">
+        <v>0.31</v>
+      </c>
+      <c r="J105">
+        <v>37.7</v>
+      </c>
+      <c r="K105">
+        <v>0.528</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -6241,10 +6208,10 @@
         <v>495</v>
       </c>
       <c r="F106">
-        <v>46.5</v>
+        <v>51.3</v>
       </c>
       <c r="G106" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H106" t="s">
         <v>495</v>
@@ -6276,22 +6243,22 @@
         <v>116</v>
       </c>
       <c r="F107">
-        <v>78.59999999999999</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="G107" t="s">
-        <v>708</v>
-      </c>
-      <c r="H107" t="s">
-        <v>712</v>
-      </c>
-      <c r="I107" t="s">
-        <v>712</v>
-      </c>
-      <c r="J107" t="s">
-        <v>712</v>
-      </c>
-      <c r="K107" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H107">
+        <v>69.7</v>
+      </c>
+      <c r="I107">
+        <v>0.287</v>
+      </c>
+      <c r="J107">
+        <v>37.7</v>
+      </c>
+      <c r="K107">
+        <v>0.543</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -6311,10 +6278,10 @@
         <v>495</v>
       </c>
       <c r="F108">
-        <v>38.9</v>
+        <v>26.9</v>
       </c>
       <c r="G108" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H108" t="s">
         <v>495</v>
@@ -6346,22 +6313,22 @@
         <v>118</v>
       </c>
       <c r="F109">
-        <v>99.8</v>
+        <v>76.8</v>
       </c>
       <c r="G109" t="s">
-        <v>708</v>
-      </c>
-      <c r="H109" t="s">
-        <v>712</v>
-      </c>
-      <c r="I109" t="s">
-        <v>712</v>
-      </c>
-      <c r="J109" t="s">
-        <v>712</v>
-      </c>
-      <c r="K109" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H109">
+        <v>62.7</v>
+      </c>
+      <c r="I109">
+        <v>0.314</v>
+      </c>
+      <c r="J109">
+        <v>33.3</v>
+      </c>
+      <c r="K109">
+        <v>0.485</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -6381,10 +6348,10 @@
         <v>495</v>
       </c>
       <c r="F110">
-        <v>46.5</v>
+        <v>60.7</v>
       </c>
       <c r="G110" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H110" t="s">
         <v>495</v>
@@ -6416,22 +6383,22 @@
         <v>120</v>
       </c>
       <c r="F111">
-        <v>83.8</v>
+        <v>106.8</v>
       </c>
       <c r="G111" t="s">
-        <v>708</v>
-      </c>
-      <c r="H111" t="s">
-        <v>712</v>
-      </c>
-      <c r="I111" t="s">
-        <v>712</v>
-      </c>
-      <c r="J111" t="s">
-        <v>712</v>
-      </c>
-      <c r="K111" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H111">
+        <v>61.3</v>
+      </c>
+      <c r="I111">
+        <v>0.663</v>
+      </c>
+      <c r="J111">
+        <v>20.3</v>
+      </c>
+      <c r="K111">
+        <v>0.275</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -6451,10 +6418,10 @@
         <v>495</v>
       </c>
       <c r="F112">
-        <v>72.5</v>
+        <v>51.3</v>
       </c>
       <c r="G112" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H112" t="s">
         <v>495</v>
@@ -6486,10 +6453,10 @@
         <v>495</v>
       </c>
       <c r="F113">
-        <v>67.59999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="G113" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H113" t="s">
         <v>495</v>
@@ -6521,22 +6488,22 @@
         <v>123</v>
       </c>
       <c r="F114">
-        <v>96.3</v>
+        <v>99.3</v>
       </c>
       <c r="G114" t="s">
-        <v>708</v>
-      </c>
-      <c r="H114" t="s">
-        <v>712</v>
-      </c>
-      <c r="I114" t="s">
-        <v>712</v>
-      </c>
-      <c r="J114" t="s">
-        <v>712</v>
-      </c>
-      <c r="K114" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H114">
+        <v>71</v>
+      </c>
+      <c r="I114">
+        <v>0.385</v>
+      </c>
+      <c r="J114">
+        <v>27.3</v>
+      </c>
+      <c r="K114">
+        <v>0.441</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6556,22 +6523,22 @@
         <v>124</v>
       </c>
       <c r="F115">
-        <v>86.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="G115" t="s">
-        <v>708</v>
-      </c>
-      <c r="H115" t="s">
-        <v>712</v>
-      </c>
-      <c r="I115" t="s">
-        <v>712</v>
-      </c>
-      <c r="J115" t="s">
-        <v>712</v>
-      </c>
-      <c r="K115" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H115">
+        <v>67.7</v>
+      </c>
+      <c r="I115">
+        <v>0.187</v>
+      </c>
+      <c r="J115">
+        <v>18.3</v>
+      </c>
+      <c r="K115">
+        <v>0.307</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -6591,10 +6558,10 @@
         <v>495</v>
       </c>
       <c r="F116">
-        <v>52.8</v>
+        <v>40.3</v>
       </c>
       <c r="G116" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H116" t="s">
         <v>495</v>
@@ -6626,22 +6593,22 @@
         <v>689</v>
       </c>
       <c r="F117">
-        <v>98.3</v>
+        <v>97.8</v>
       </c>
       <c r="G117" t="s">
-        <v>708</v>
-      </c>
-      <c r="H117" t="s">
-        <v>712</v>
-      </c>
-      <c r="I117" t="s">
-        <v>712</v>
-      </c>
-      <c r="J117" t="s">
-        <v>712</v>
-      </c>
-      <c r="K117" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H117">
+        <v>71.3</v>
+      </c>
+      <c r="I117">
+        <v>0.369</v>
+      </c>
+      <c r="J117">
+        <v>24</v>
+      </c>
+      <c r="K117">
+        <v>0.336</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6661,22 +6628,22 @@
         <v>127</v>
       </c>
       <c r="F118">
-        <v>77.7</v>
+        <v>88</v>
       </c>
       <c r="G118" t="s">
-        <v>708</v>
-      </c>
-      <c r="H118" t="s">
-        <v>712</v>
-      </c>
-      <c r="I118" t="s">
-        <v>712</v>
-      </c>
-      <c r="J118" t="s">
-        <v>712</v>
-      </c>
-      <c r="K118" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H118">
+        <v>79</v>
+      </c>
+      <c r="I118">
+        <v>0.62</v>
+      </c>
+      <c r="J118">
+        <v>31</v>
+      </c>
+      <c r="K118">
+        <v>0.467</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6696,22 +6663,22 @@
         <v>690</v>
       </c>
       <c r="F119">
-        <v>77.90000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="G119" t="s">
-        <v>708</v>
-      </c>
-      <c r="H119" t="s">
-        <v>712</v>
-      </c>
-      <c r="I119" t="s">
-        <v>712</v>
-      </c>
-      <c r="J119" t="s">
-        <v>712</v>
-      </c>
-      <c r="K119" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H119">
+        <v>72.7</v>
+      </c>
+      <c r="I119">
+        <v>0.376</v>
+      </c>
+      <c r="J119">
+        <v>43.7</v>
+      </c>
+      <c r="K119">
+        <v>0.63</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -6731,22 +6698,22 @@
         <v>691</v>
       </c>
       <c r="F120">
-        <v>59</v>
+        <v>71.2</v>
       </c>
       <c r="G120" t="s">
-        <v>708</v>
-      </c>
-      <c r="H120" t="s">
-        <v>712</v>
-      </c>
-      <c r="I120" t="s">
-        <v>712</v>
-      </c>
-      <c r="J120" t="s">
-        <v>712</v>
-      </c>
-      <c r="K120" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H120">
+        <v>66</v>
+      </c>
+      <c r="I120">
+        <v>0.465</v>
+      </c>
+      <c r="J120">
+        <v>28.3</v>
+      </c>
+      <c r="K120">
+        <v>0.399</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -6766,22 +6733,22 @@
         <v>130</v>
       </c>
       <c r="F121">
-        <v>89.90000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="G121" t="s">
-        <v>708</v>
-      </c>
-      <c r="H121" t="s">
-        <v>712</v>
-      </c>
-      <c r="I121" t="s">
-        <v>712</v>
-      </c>
-      <c r="J121" t="s">
-        <v>712</v>
-      </c>
-      <c r="K121" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H121">
+        <v>73</v>
+      </c>
+      <c r="I121">
+        <v>0.47</v>
+      </c>
+      <c r="J121">
+        <v>23</v>
+      </c>
+      <c r="K121">
+        <v>0.352</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6801,22 +6768,22 @@
         <v>131</v>
       </c>
       <c r="F122">
-        <v>76</v>
+        <v>75.2</v>
       </c>
       <c r="G122" t="s">
-        <v>708</v>
-      </c>
-      <c r="H122" t="s">
-        <v>712</v>
-      </c>
-      <c r="I122" t="s">
-        <v>712</v>
-      </c>
-      <c r="J122" t="s">
-        <v>712</v>
-      </c>
-      <c r="K122" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H122">
+        <v>75</v>
+      </c>
+      <c r="I122">
+        <v>0.351</v>
+      </c>
+      <c r="J122">
+        <v>35</v>
+      </c>
+      <c r="K122">
+        <v>0.417</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -6836,22 +6803,22 @@
         <v>132</v>
       </c>
       <c r="F123">
-        <v>92.90000000000001</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="G123" t="s">
-        <v>708</v>
-      </c>
-      <c r="H123" t="s">
-        <v>712</v>
-      </c>
-      <c r="I123" t="s">
-        <v>712</v>
-      </c>
-      <c r="J123" t="s">
-        <v>712</v>
-      </c>
-      <c r="K123" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H123">
+        <v>72.3</v>
+      </c>
+      <c r="I123">
+        <v>0.189</v>
+      </c>
+      <c r="J123">
+        <v>39.7</v>
+      </c>
+      <c r="K123">
+        <v>0.647</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6871,22 +6838,22 @@
         <v>133</v>
       </c>
       <c r="F124">
-        <v>111.3</v>
+        <v>81.5</v>
       </c>
       <c r="G124" t="s">
-        <v>708</v>
-      </c>
-      <c r="H124" t="s">
-        <v>712</v>
-      </c>
-      <c r="I124" t="s">
-        <v>712</v>
-      </c>
-      <c r="J124" t="s">
-        <v>712</v>
-      </c>
-      <c r="K124" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H124">
+        <v>69</v>
+      </c>
+      <c r="I124">
+        <v>0.3</v>
+      </c>
+      <c r="J124">
+        <v>33.7</v>
+      </c>
+      <c r="K124">
+        <v>0.502</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6906,10 +6873,10 @@
         <v>495</v>
       </c>
       <c r="F125">
-        <v>49.1</v>
+        <v>62.9</v>
       </c>
       <c r="G125" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H125" t="s">
         <v>495</v>
@@ -6941,22 +6908,22 @@
         <v>135</v>
       </c>
       <c r="F126">
-        <v>100.6</v>
+        <v>96.5</v>
       </c>
       <c r="G126" t="s">
-        <v>708</v>
-      </c>
-      <c r="H126" t="s">
-        <v>712</v>
-      </c>
-      <c r="I126" t="s">
-        <v>712</v>
-      </c>
-      <c r="J126" t="s">
-        <v>712</v>
-      </c>
-      <c r="K126" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H126">
+        <v>62</v>
+      </c>
+      <c r="I126">
+        <v>0.382</v>
+      </c>
+      <c r="J126">
+        <v>26.3</v>
+      </c>
+      <c r="K126">
+        <v>0.411</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6976,10 +6943,10 @@
         <v>495</v>
       </c>
       <c r="F127">
-        <v>25.5</v>
+        <v>31.9</v>
       </c>
       <c r="G127" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H127" t="s">
         <v>495</v>
@@ -7011,10 +6978,10 @@
         <v>495</v>
       </c>
       <c r="F128">
-        <v>69.2</v>
+        <v>66</v>
       </c>
       <c r="G128" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H128" t="s">
         <v>495</v>
@@ -7046,22 +7013,22 @@
         <v>692</v>
       </c>
       <c r="F129">
-        <v>101.8</v>
+        <v>110</v>
       </c>
       <c r="G129" t="s">
-        <v>708</v>
-      </c>
-      <c r="H129" t="s">
-        <v>712</v>
-      </c>
-      <c r="I129" t="s">
-        <v>712</v>
-      </c>
-      <c r="J129" t="s">
-        <v>712</v>
-      </c>
-      <c r="K129" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H129">
+        <v>74</v>
+      </c>
+      <c r="I129">
+        <v>0.32</v>
+      </c>
+      <c r="J129">
+        <v>16</v>
+      </c>
+      <c r="K129">
+        <v>0.24</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -7081,22 +7048,22 @@
         <v>139</v>
       </c>
       <c r="F130">
-        <v>90.40000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="G130" t="s">
-        <v>708</v>
-      </c>
-      <c r="H130" t="s">
-        <v>712</v>
-      </c>
-      <c r="I130" t="s">
-        <v>712</v>
-      </c>
-      <c r="J130" t="s">
-        <v>712</v>
-      </c>
-      <c r="K130" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H130">
+        <v>70.3</v>
+      </c>
+      <c r="I130">
+        <v>0.611</v>
+      </c>
+      <c r="J130">
+        <v>26.3</v>
+      </c>
+      <c r="K130">
+        <v>0.403</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -7116,22 +7083,22 @@
         <v>140</v>
       </c>
       <c r="F131">
-        <v>62.1</v>
+        <v>64.7</v>
       </c>
       <c r="G131" t="s">
-        <v>708</v>
-      </c>
-      <c r="H131" t="s">
-        <v>712</v>
-      </c>
-      <c r="I131" t="s">
-        <v>712</v>
-      </c>
-      <c r="J131" t="s">
-        <v>712</v>
-      </c>
-      <c r="K131" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H131">
+        <v>77</v>
+      </c>
+      <c r="I131">
+        <v>0.268</v>
+      </c>
+      <c r="J131">
+        <v>30</v>
+      </c>
+      <c r="K131">
+        <v>0.419</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -7151,22 +7118,22 @@
         <v>693</v>
       </c>
       <c r="F132">
-        <v>87.8</v>
+        <v>106.7</v>
       </c>
       <c r="G132" t="s">
-        <v>708</v>
-      </c>
-      <c r="H132" t="s">
-        <v>715</v>
-      </c>
-      <c r="I132" t="s">
-        <v>719</v>
-      </c>
-      <c r="J132" t="s">
-        <v>721</v>
-      </c>
-      <c r="K132" t="s">
-        <v>720</v>
+        <v>709</v>
+      </c>
+      <c r="H132">
+        <v>74</v>
+      </c>
+      <c r="I132">
+        <v>0.459</v>
+      </c>
+      <c r="J132">
+        <v>15.7</v>
+      </c>
+      <c r="K132">
+        <v>0.215</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -7186,22 +7153,22 @@
         <v>142</v>
       </c>
       <c r="F133">
-        <v>114</v>
+        <v>117.5</v>
       </c>
       <c r="G133" t="s">
-        <v>708</v>
-      </c>
-      <c r="H133" t="s">
-        <v>712</v>
-      </c>
-      <c r="I133" t="s">
-        <v>712</v>
-      </c>
-      <c r="J133" t="s">
-        <v>712</v>
-      </c>
-      <c r="K133" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H133">
+        <v>60.7</v>
+      </c>
+      <c r="I133">
+        <v>0.731</v>
+      </c>
+      <c r="J133">
+        <v>21</v>
+      </c>
+      <c r="K133">
+        <v>0.292</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -7221,22 +7188,22 @@
         <v>143</v>
       </c>
       <c r="F134">
-        <v>97.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="G134" t="s">
-        <v>708</v>
-      </c>
-      <c r="H134" t="s">
-        <v>712</v>
-      </c>
-      <c r="I134" t="s">
-        <v>712</v>
-      </c>
-      <c r="J134" t="s">
-        <v>712</v>
-      </c>
-      <c r="K134" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H134">
+        <v>66.7</v>
+      </c>
+      <c r="I134">
+        <v>0.415</v>
+      </c>
+      <c r="J134">
+        <v>29.7</v>
+      </c>
+      <c r="K134">
+        <v>0.454</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -7256,22 +7223,22 @@
         <v>694</v>
       </c>
       <c r="F135">
-        <v>60.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="G135" t="s">
-        <v>708</v>
-      </c>
-      <c r="H135" t="s">
-        <v>712</v>
-      </c>
-      <c r="I135" t="s">
-        <v>712</v>
-      </c>
-      <c r="J135" t="s">
-        <v>712</v>
-      </c>
-      <c r="K135" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H135">
+        <v>69</v>
+      </c>
+      <c r="I135">
+        <v>0.469</v>
+      </c>
+      <c r="J135">
+        <v>47</v>
+      </c>
+      <c r="K135">
+        <v>0.681</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -7291,22 +7258,22 @@
         <v>695</v>
       </c>
       <c r="F136">
-        <v>70.8</v>
+        <v>67.3</v>
       </c>
       <c r="G136" t="s">
-        <v>708</v>
-      </c>
-      <c r="H136" t="s">
-        <v>712</v>
-      </c>
-      <c r="I136" t="s">
-        <v>712</v>
-      </c>
-      <c r="J136" t="s">
-        <v>712</v>
-      </c>
-      <c r="K136" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H136">
+        <v>65</v>
+      </c>
+      <c r="I136">
+        <v>0.215</v>
+      </c>
+      <c r="J136">
+        <v>25</v>
+      </c>
+      <c r="K136">
+        <v>0.395</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -7326,22 +7293,22 @@
         <v>146</v>
       </c>
       <c r="F137">
-        <v>88.59999999999999</v>
+        <v>69.8</v>
       </c>
       <c r="G137" t="s">
-        <v>708</v>
-      </c>
-      <c r="H137" t="s">
-        <v>712</v>
-      </c>
-      <c r="I137" t="s">
-        <v>712</v>
-      </c>
-      <c r="J137" t="s">
-        <v>712</v>
-      </c>
-      <c r="K137" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H137">
+        <v>59.3</v>
+      </c>
+      <c r="I137">
+        <v>0.152</v>
+      </c>
+      <c r="J137">
+        <v>46.3</v>
+      </c>
+      <c r="K137">
+        <v>0.671</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -7361,22 +7328,22 @@
         <v>147</v>
       </c>
       <c r="F138">
-        <v>82.2</v>
+        <v>92.2</v>
       </c>
       <c r="G138" t="s">
-        <v>708</v>
-      </c>
-      <c r="H138" t="s">
-        <v>712</v>
-      </c>
-      <c r="I138" t="s">
-        <v>712</v>
-      </c>
-      <c r="J138" t="s">
-        <v>712</v>
-      </c>
-      <c r="K138" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H138">
+        <v>68</v>
+      </c>
+      <c r="I138">
+        <v>0.51</v>
+      </c>
+      <c r="J138">
+        <v>10.3</v>
+      </c>
+      <c r="K138">
+        <v>0.172</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -7396,22 +7363,22 @@
         <v>148</v>
       </c>
       <c r="F139">
-        <v>89.5</v>
+        <v>102.3</v>
       </c>
       <c r="G139" t="s">
-        <v>708</v>
-      </c>
-      <c r="H139" t="s">
-        <v>712</v>
-      </c>
-      <c r="I139" t="s">
-        <v>712</v>
-      </c>
-      <c r="J139" t="s">
-        <v>712</v>
-      </c>
-      <c r="K139" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H139">
+        <v>68.3</v>
+      </c>
+      <c r="I139">
+        <v>0.502</v>
+      </c>
+      <c r="J139">
+        <v>28</v>
+      </c>
+      <c r="K139">
+        <v>0.424</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -7431,22 +7398,22 @@
         <v>149</v>
       </c>
       <c r="F140">
-        <v>74.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="G140" t="s">
-        <v>708</v>
-      </c>
-      <c r="H140" t="s">
-        <v>712</v>
-      </c>
-      <c r="I140" t="s">
-        <v>712</v>
-      </c>
-      <c r="J140" t="s">
-        <v>712</v>
-      </c>
-      <c r="K140" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H140">
+        <v>79.3</v>
+      </c>
+      <c r="I140">
+        <v>0.445</v>
+      </c>
+      <c r="J140">
+        <v>29</v>
+      </c>
+      <c r="K140">
+        <v>0.446</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -7466,22 +7433,22 @@
         <v>150</v>
       </c>
       <c r="F141">
-        <v>75.40000000000001</v>
+        <v>90.7</v>
       </c>
       <c r="G141" t="s">
-        <v>708</v>
-      </c>
-      <c r="H141" t="s">
-        <v>712</v>
-      </c>
-      <c r="I141" t="s">
-        <v>712</v>
-      </c>
-      <c r="J141" t="s">
-        <v>712</v>
-      </c>
-      <c r="K141" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H141">
+        <v>68.3</v>
+      </c>
+      <c r="I141">
+        <v>0.527</v>
+      </c>
+      <c r="J141">
+        <v>23.7</v>
+      </c>
+      <c r="K141">
+        <v>0.332</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -7501,22 +7468,22 @@
         <v>151</v>
       </c>
       <c r="F142">
-        <v>77.09999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="G142" t="s">
-        <v>708</v>
-      </c>
-      <c r="H142" t="s">
-        <v>712</v>
-      </c>
-      <c r="I142" t="s">
-        <v>712</v>
-      </c>
-      <c r="J142" t="s">
-        <v>712</v>
-      </c>
-      <c r="K142" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H142">
+        <v>55</v>
+      </c>
+      <c r="I142">
+        <v>0.394</v>
+      </c>
+      <c r="J142">
+        <v>22.7</v>
+      </c>
+      <c r="K142">
+        <v>0.393</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -7536,10 +7503,10 @@
         <v>495</v>
       </c>
       <c r="F143">
-        <v>67.40000000000001</v>
+        <v>58.2</v>
       </c>
       <c r="G143" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H143" t="s">
         <v>495</v>
@@ -7571,10 +7538,10 @@
         <v>495</v>
       </c>
       <c r="F144">
-        <v>46.1</v>
+        <v>60.3</v>
       </c>
       <c r="G144" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H144" t="s">
         <v>495</v>
@@ -7606,10 +7573,10 @@
         <v>495</v>
       </c>
       <c r="F145">
-        <v>63.2</v>
+        <v>46.6</v>
       </c>
       <c r="G145" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H145" t="s">
         <v>495</v>
@@ -7641,22 +7608,22 @@
         <v>155</v>
       </c>
       <c r="F146">
-        <v>86.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="G146" t="s">
-        <v>708</v>
-      </c>
-      <c r="H146" t="s">
-        <v>712</v>
-      </c>
-      <c r="I146" t="s">
-        <v>712</v>
-      </c>
-      <c r="J146" t="s">
-        <v>712</v>
-      </c>
-      <c r="K146" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H146">
+        <v>73</v>
+      </c>
+      <c r="I146">
+        <v>0.338</v>
+      </c>
+      <c r="J146">
+        <v>22</v>
+      </c>
+      <c r="K146">
+        <v>0.4</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7676,10 +7643,10 @@
         <v>495</v>
       </c>
       <c r="F147">
-        <v>63.6</v>
+        <v>57.2</v>
       </c>
       <c r="G147" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H147" t="s">
         <v>495</v>
@@ -7711,10 +7678,10 @@
         <v>495</v>
       </c>
       <c r="F148">
-        <v>50.7</v>
+        <v>65</v>
       </c>
       <c r="G148" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H148" t="s">
         <v>495</v>
@@ -7746,22 +7713,22 @@
         <v>696</v>
       </c>
       <c r="F149">
-        <v>95.59999999999999</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="G149" t="s">
-        <v>708</v>
-      </c>
-      <c r="H149" t="s">
-        <v>712</v>
-      </c>
-      <c r="I149" t="s">
-        <v>712</v>
-      </c>
-      <c r="J149" t="s">
-        <v>712</v>
-      </c>
-      <c r="K149" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H149">
+        <v>77.7</v>
+      </c>
+      <c r="I149">
+        <v>0.356</v>
+      </c>
+      <c r="J149">
+        <v>38.3</v>
+      </c>
+      <c r="K149">
+        <v>0.615</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7781,22 +7748,22 @@
         <v>697</v>
       </c>
       <c r="F150">
-        <v>84.7</v>
+        <v>88.5</v>
       </c>
       <c r="G150" t="s">
-        <v>708</v>
-      </c>
-      <c r="H150" t="s">
-        <v>712</v>
-      </c>
-      <c r="I150" t="s">
-        <v>712</v>
-      </c>
-      <c r="J150" t="s">
-        <v>712</v>
-      </c>
-      <c r="K150" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H150">
+        <v>67.7</v>
+      </c>
+      <c r="I150">
+        <v>0.443</v>
+      </c>
+      <c r="J150">
+        <v>14</v>
+      </c>
+      <c r="K150">
+        <v>0.199</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7816,22 +7783,22 @@
         <v>698</v>
       </c>
       <c r="F151">
-        <v>75</v>
+        <v>72.7</v>
       </c>
       <c r="G151" t="s">
-        <v>708</v>
-      </c>
-      <c r="H151" t="s">
-        <v>712</v>
-      </c>
-      <c r="I151" t="s">
-        <v>712</v>
-      </c>
-      <c r="J151" t="s">
-        <v>712</v>
-      </c>
-      <c r="K151" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H151">
+        <v>68.3</v>
+      </c>
+      <c r="I151">
+        <v>0.234</v>
+      </c>
+      <c r="J151">
+        <v>32</v>
+      </c>
+      <c r="K151">
+        <v>0.48</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7851,10 +7818,10 @@
         <v>495</v>
       </c>
       <c r="F152">
-        <v>35.6</v>
+        <v>40.5</v>
       </c>
       <c r="G152" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H152" t="s">
         <v>495</v>
@@ -7886,22 +7853,22 @@
         <v>162</v>
       </c>
       <c r="F153">
-        <v>87.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="G153" t="s">
-        <v>708</v>
-      </c>
-      <c r="H153" t="s">
-        <v>712</v>
-      </c>
-      <c r="I153" t="s">
-        <v>712</v>
-      </c>
-      <c r="J153" t="s">
-        <v>712</v>
-      </c>
-      <c r="K153" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H153">
+        <v>72.7</v>
+      </c>
+      <c r="I153">
+        <v>0.417</v>
+      </c>
+      <c r="J153">
+        <v>25</v>
+      </c>
+      <c r="K153">
+        <v>0.352</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7921,22 +7888,22 @@
         <v>163</v>
       </c>
       <c r="F154">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G154" t="s">
-        <v>708</v>
-      </c>
-      <c r="H154" t="s">
-        <v>712</v>
-      </c>
-      <c r="I154" t="s">
-        <v>712</v>
-      </c>
-      <c r="J154" t="s">
-        <v>712</v>
-      </c>
-      <c r="K154" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H154">
+        <v>76.7</v>
+      </c>
+      <c r="I154">
+        <v>0.374</v>
+      </c>
+      <c r="J154">
+        <v>21</v>
+      </c>
+      <c r="K154">
+        <v>0.292</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7956,10 +7923,10 @@
         <v>495</v>
       </c>
       <c r="F155">
-        <v>-6.2</v>
+        <v>-7</v>
       </c>
       <c r="G155" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H155" t="s">
         <v>495</v>
@@ -7991,10 +7958,10 @@
         <v>495</v>
       </c>
       <c r="F156">
-        <v>64.5</v>
+        <v>60.9</v>
       </c>
       <c r="G156" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H156" t="s">
         <v>495</v>
@@ -8026,10 +7993,10 @@
         <v>495</v>
       </c>
       <c r="F157">
-        <v>68.59999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="G157" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H157" t="s">
         <v>495</v>
@@ -8061,22 +8028,22 @@
         <v>699</v>
       </c>
       <c r="F158">
-        <v>70.59999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="G158" t="s">
-        <v>708</v>
-      </c>
-      <c r="H158" t="s">
-        <v>712</v>
-      </c>
-      <c r="I158" t="s">
-        <v>712</v>
-      </c>
-      <c r="J158" t="s">
-        <v>712</v>
-      </c>
-      <c r="K158" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H158">
+        <v>76.7</v>
+      </c>
+      <c r="I158">
+        <v>0.578</v>
+      </c>
+      <c r="J158">
+        <v>24</v>
+      </c>
+      <c r="K158">
+        <v>0.316</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -8096,10 +8063,10 @@
         <v>495</v>
       </c>
       <c r="F159">
-        <v>60.5</v>
+        <v>63.9</v>
       </c>
       <c r="G159" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H159" t="s">
         <v>495</v>
@@ -8131,22 +8098,22 @@
         <v>169</v>
       </c>
       <c r="F160">
-        <v>93.09999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="G160" t="s">
-        <v>708</v>
-      </c>
-      <c r="H160" t="s">
-        <v>712</v>
-      </c>
-      <c r="I160" t="s">
-        <v>712</v>
-      </c>
-      <c r="J160" t="s">
-        <v>712</v>
-      </c>
-      <c r="K160" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H160">
+        <v>70.3</v>
+      </c>
+      <c r="I160">
+        <v>0.289</v>
+      </c>
+      <c r="J160">
+        <v>48.7</v>
+      </c>
+      <c r="K160">
+        <v>0.613</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -8166,22 +8133,22 @@
         <v>170</v>
       </c>
       <c r="F161">
-        <v>80.2</v>
+        <v>82.7</v>
       </c>
       <c r="G161" t="s">
-        <v>708</v>
-      </c>
-      <c r="H161" t="s">
-        <v>712</v>
-      </c>
-      <c r="I161" t="s">
-        <v>712</v>
-      </c>
-      <c r="J161" t="s">
-        <v>712</v>
-      </c>
-      <c r="K161" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H161">
+        <v>70.3</v>
+      </c>
+      <c r="I161">
+        <v>0.261</v>
+      </c>
+      <c r="J161">
+        <v>32</v>
+      </c>
+      <c r="K161">
+        <v>0.453</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -8201,22 +8168,22 @@
         <v>171</v>
       </c>
       <c r="F162">
-        <v>105.2</v>
+        <v>98.3</v>
       </c>
       <c r="G162" t="s">
-        <v>708</v>
-      </c>
-      <c r="H162" t="s">
-        <v>712</v>
-      </c>
-      <c r="I162" t="s">
-        <v>712</v>
-      </c>
-      <c r="J162" t="s">
-        <v>712</v>
-      </c>
-      <c r="K162" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H162">
+        <v>63.7</v>
+      </c>
+      <c r="I162">
+        <v>0.335</v>
+      </c>
+      <c r="J162">
+        <v>23.3</v>
+      </c>
+      <c r="K162">
+        <v>0.352</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -8236,22 +8203,22 @@
         <v>172</v>
       </c>
       <c r="F163">
-        <v>79.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="G163" t="s">
-        <v>708</v>
-      </c>
-      <c r="H163" t="s">
-        <v>712</v>
-      </c>
-      <c r="I163" t="s">
-        <v>712</v>
-      </c>
-      <c r="J163" t="s">
-        <v>712</v>
-      </c>
-      <c r="K163" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H163">
+        <v>70.7</v>
+      </c>
+      <c r="I163">
+        <v>0.292</v>
+      </c>
+      <c r="J163">
+        <v>17.3</v>
+      </c>
+      <c r="K163">
+        <v>0.268</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -8271,10 +8238,10 @@
         <v>495</v>
       </c>
       <c r="F164">
-        <v>46.2</v>
+        <v>53.7</v>
       </c>
       <c r="G164" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H164" t="s">
         <v>495</v>
@@ -8306,22 +8273,22 @@
         <v>174</v>
       </c>
       <c r="F165">
-        <v>95.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="G165" t="s">
-        <v>708</v>
-      </c>
-      <c r="H165" t="s">
-        <v>712</v>
-      </c>
-      <c r="I165" t="s">
-        <v>712</v>
-      </c>
-      <c r="J165" t="s">
-        <v>712</v>
-      </c>
-      <c r="K165" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H165">
+        <v>62.3</v>
+      </c>
+      <c r="I165">
+        <v>0.246</v>
+      </c>
+      <c r="J165">
+        <v>33.3</v>
+      </c>
+      <c r="K165">
+        <v>0.431</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -8341,22 +8308,22 @@
         <v>175</v>
       </c>
       <c r="F166">
-        <v>107.2</v>
+        <v>93.7</v>
       </c>
       <c r="G166" t="s">
-        <v>708</v>
-      </c>
-      <c r="H166" t="s">
-        <v>712</v>
-      </c>
-      <c r="I166" t="s">
-        <v>712</v>
-      </c>
-      <c r="J166" t="s">
-        <v>712</v>
-      </c>
-      <c r="K166" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H166">
+        <v>62.7</v>
+      </c>
+      <c r="I166">
+        <v>0.309</v>
+      </c>
+      <c r="J166">
+        <v>34.3</v>
+      </c>
+      <c r="K166">
+        <v>0.477</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -8376,22 +8343,22 @@
         <v>176</v>
       </c>
       <c r="F167">
-        <v>94.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="G167" t="s">
-        <v>708</v>
-      </c>
-      <c r="H167" t="s">
-        <v>712</v>
-      </c>
-      <c r="I167" t="s">
-        <v>712</v>
-      </c>
-      <c r="J167" t="s">
-        <v>712</v>
-      </c>
-      <c r="K167" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H167">
+        <v>72</v>
+      </c>
+      <c r="I167">
+        <v>0.241</v>
+      </c>
+      <c r="J167">
+        <v>21</v>
+      </c>
+      <c r="K167">
+        <v>0.337</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -8411,22 +8378,22 @@
         <v>700</v>
       </c>
       <c r="F168">
-        <v>82.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="G168" t="s">
-        <v>708</v>
-      </c>
-      <c r="H168" t="s">
-        <v>712</v>
-      </c>
-      <c r="I168" t="s">
-        <v>712</v>
-      </c>
-      <c r="J168" t="s">
-        <v>712</v>
-      </c>
-      <c r="K168" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H168">
+        <v>66.3</v>
+      </c>
+      <c r="I168">
+        <v>0.407</v>
+      </c>
+      <c r="J168">
+        <v>18</v>
+      </c>
+      <c r="K168">
+        <v>0.278</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -8446,22 +8413,22 @@
         <v>178</v>
       </c>
       <c r="F169">
-        <v>93</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="G169" t="s">
-        <v>708</v>
-      </c>
-      <c r="H169" t="s">
-        <v>712</v>
-      </c>
-      <c r="I169" t="s">
-        <v>712</v>
-      </c>
-      <c r="J169" t="s">
-        <v>712</v>
-      </c>
-      <c r="K169" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H169">
+        <v>71.7</v>
+      </c>
+      <c r="I169">
+        <v>0.488</v>
+      </c>
+      <c r="J169">
+        <v>27.7</v>
+      </c>
+      <c r="K169">
+        <v>0.369</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -8481,22 +8448,22 @@
         <v>179</v>
       </c>
       <c r="F170">
-        <v>83.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G170" t="s">
-        <v>708</v>
-      </c>
-      <c r="H170" t="s">
-        <v>712</v>
-      </c>
-      <c r="I170" t="s">
-        <v>712</v>
-      </c>
-      <c r="J170" t="s">
-        <v>712</v>
-      </c>
-      <c r="K170" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H170">
+        <v>75.7</v>
+      </c>
+      <c r="I170">
+        <v>0.304</v>
+      </c>
+      <c r="J170">
+        <v>31.7</v>
+      </c>
+      <c r="K170">
+        <v>0.459</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -8516,22 +8483,22 @@
         <v>180</v>
       </c>
       <c r="F171">
-        <v>103.6</v>
+        <v>108.5</v>
       </c>
       <c r="G171" t="s">
-        <v>708</v>
-      </c>
-      <c r="H171" t="s">
-        <v>712</v>
-      </c>
-      <c r="I171" t="s">
-        <v>712</v>
-      </c>
-      <c r="J171" t="s">
-        <v>712</v>
-      </c>
-      <c r="K171" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H171">
+        <v>73.7</v>
+      </c>
+      <c r="I171">
+        <v>0.493</v>
+      </c>
+      <c r="J171">
+        <v>18</v>
+      </c>
+      <c r="K171">
+        <v>0.269</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -8551,22 +8518,22 @@
         <v>181</v>
       </c>
       <c r="F172">
-        <v>63.9</v>
+        <v>67.7</v>
       </c>
       <c r="G172" t="s">
-        <v>708</v>
-      </c>
-      <c r="H172" t="s">
-        <v>712</v>
-      </c>
-      <c r="I172" t="s">
-        <v>712</v>
-      </c>
-      <c r="J172" t="s">
-        <v>712</v>
-      </c>
-      <c r="K172" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H172">
+        <v>72.3</v>
+      </c>
+      <c r="I172">
+        <v>0.346</v>
+      </c>
+      <c r="J172">
+        <v>20</v>
+      </c>
+      <c r="K172">
+        <v>0.303</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -8586,10 +8553,10 @@
         <v>495</v>
       </c>
       <c r="F173">
-        <v>64.09999999999999</v>
+        <v>70.3</v>
       </c>
       <c r="G173" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H173" t="s">
         <v>495</v>
@@ -8621,22 +8588,22 @@
         <v>183</v>
       </c>
       <c r="F174">
-        <v>112.7</v>
+        <v>108</v>
       </c>
       <c r="G174" t="s">
-        <v>708</v>
-      </c>
-      <c r="H174" t="s">
-        <v>712</v>
-      </c>
-      <c r="I174" t="s">
-        <v>712</v>
-      </c>
-      <c r="J174" t="s">
-        <v>712</v>
-      </c>
-      <c r="K174" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H174">
+        <v>67.7</v>
+      </c>
+      <c r="I174">
+        <v>0.36</v>
+      </c>
+      <c r="J174">
+        <v>17</v>
+      </c>
+      <c r="K174">
+        <v>0.259</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8656,10 +8623,10 @@
         <v>495</v>
       </c>
       <c r="F175">
-        <v>66.3</v>
+        <v>60.2</v>
       </c>
       <c r="G175" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H175" t="s">
         <v>495</v>
@@ -8691,22 +8658,22 @@
         <v>185</v>
       </c>
       <c r="F176">
-        <v>70.2</v>
+        <v>71.2</v>
       </c>
       <c r="G176" t="s">
-        <v>708</v>
-      </c>
-      <c r="H176" t="s">
-        <v>712</v>
-      </c>
-      <c r="I176" t="s">
-        <v>712</v>
-      </c>
-      <c r="J176" t="s">
-        <v>712</v>
-      </c>
-      <c r="K176" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H176">
+        <v>53</v>
+      </c>
+      <c r="I176">
+        <v>0.396</v>
+      </c>
+      <c r="J176">
+        <v>21.3</v>
+      </c>
+      <c r="K176">
+        <v>0.388</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -8726,22 +8693,22 @@
         <v>186</v>
       </c>
       <c r="F177">
-        <v>98.40000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="G177" t="s">
-        <v>708</v>
-      </c>
-      <c r="H177" t="s">
-        <v>712</v>
-      </c>
-      <c r="I177" t="s">
-        <v>712</v>
-      </c>
-      <c r="J177" t="s">
-        <v>712</v>
-      </c>
-      <c r="K177" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H177">
+        <v>68.7</v>
+      </c>
+      <c r="I177">
+        <v>0.18</v>
+      </c>
+      <c r="J177">
+        <v>34.7</v>
+      </c>
+      <c r="K177">
+        <v>0.475</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -8761,22 +8728,22 @@
         <v>701</v>
       </c>
       <c r="F178">
-        <v>83.59999999999999</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="G178" t="s">
-        <v>708</v>
-      </c>
-      <c r="H178" t="s">
-        <v>712</v>
-      </c>
-      <c r="I178" t="s">
-        <v>712</v>
-      </c>
-      <c r="J178" t="s">
-        <v>712</v>
-      </c>
-      <c r="K178" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H178">
+        <v>62</v>
+      </c>
+      <c r="I178">
+        <v>0.258</v>
+      </c>
+      <c r="J178">
+        <v>32.7</v>
+      </c>
+      <c r="K178">
+        <v>0.422</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -8796,10 +8763,10 @@
         <v>495</v>
       </c>
       <c r="F179">
-        <v>46.1</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H179" t="s">
         <v>495</v>
@@ -8831,22 +8798,22 @@
         <v>189</v>
       </c>
       <c r="F180">
-        <v>81.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="G180" t="s">
-        <v>708</v>
-      </c>
-      <c r="H180" t="s">
-        <v>712</v>
-      </c>
-      <c r="I180" t="s">
-        <v>712</v>
-      </c>
-      <c r="J180" t="s">
-        <v>712</v>
-      </c>
-      <c r="K180" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H180">
+        <v>64</v>
+      </c>
+      <c r="I180">
+        <v>0.474</v>
+      </c>
+      <c r="J180">
+        <v>28</v>
+      </c>
+      <c r="K180">
+        <v>0.38</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8866,22 +8833,22 @@
         <v>190</v>
       </c>
       <c r="F181">
-        <v>88.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="G181" t="s">
-        <v>708</v>
-      </c>
-      <c r="H181" t="s">
-        <v>712</v>
-      </c>
-      <c r="I181" t="s">
-        <v>712</v>
-      </c>
-      <c r="J181" t="s">
-        <v>712</v>
-      </c>
-      <c r="K181" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H181">
+        <v>65.7</v>
+      </c>
+      <c r="I181">
+        <v>0.411</v>
+      </c>
+      <c r="J181">
+        <v>13</v>
+      </c>
+      <c r="K181">
+        <v>0.213</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -8901,22 +8868,22 @@
         <v>191</v>
       </c>
       <c r="F182">
-        <v>83</v>
+        <v>99.5</v>
       </c>
       <c r="G182" t="s">
-        <v>708</v>
-      </c>
-      <c r="H182" t="s">
-        <v>712</v>
-      </c>
-      <c r="I182" t="s">
-        <v>712</v>
-      </c>
-      <c r="J182" t="s">
-        <v>712</v>
-      </c>
-      <c r="K182" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H182">
+        <v>64.3</v>
+      </c>
+      <c r="I182">
+        <v>0.352</v>
+      </c>
+      <c r="J182">
+        <v>19.7</v>
+      </c>
+      <c r="K182">
+        <v>0.304</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8936,10 +8903,10 @@
         <v>495</v>
       </c>
       <c r="F183">
-        <v>38.4</v>
+        <v>62.3</v>
       </c>
       <c r="G183" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H183" t="s">
         <v>495</v>
@@ -8971,22 +8938,22 @@
         <v>193</v>
       </c>
       <c r="F184">
-        <v>93.3</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="G184" t="s">
-        <v>708</v>
-      </c>
-      <c r="H184" t="s">
-        <v>712</v>
-      </c>
-      <c r="I184" t="s">
-        <v>712</v>
-      </c>
-      <c r="J184" t="s">
-        <v>712</v>
-      </c>
-      <c r="K184" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H184">
+        <v>59</v>
+      </c>
+      <c r="I184">
+        <v>0.469</v>
+      </c>
+      <c r="J184">
+        <v>21.3</v>
+      </c>
+      <c r="K184">
+        <v>0.267</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -9006,22 +8973,22 @@
         <v>194</v>
       </c>
       <c r="F185">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G185" t="s">
-        <v>708</v>
-      </c>
-      <c r="H185" t="s">
-        <v>712</v>
-      </c>
-      <c r="I185" t="s">
-        <v>712</v>
-      </c>
-      <c r="J185" t="s">
-        <v>712</v>
-      </c>
-      <c r="K185" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H185">
+        <v>69.7</v>
+      </c>
+      <c r="I185">
+        <v>0.349</v>
+      </c>
+      <c r="J185">
+        <v>28</v>
+      </c>
+      <c r="K185">
+        <v>0.394</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -9041,10 +9008,10 @@
         <v>495</v>
       </c>
       <c r="F186">
-        <v>52.8</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H186" t="s">
         <v>495</v>
@@ -9076,22 +9043,22 @@
         <v>196</v>
       </c>
       <c r="F187">
-        <v>93.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="G187" t="s">
-        <v>708</v>
-      </c>
-      <c r="H187" t="s">
-        <v>712</v>
-      </c>
-      <c r="I187" t="s">
-        <v>712</v>
-      </c>
-      <c r="J187" t="s">
-        <v>712</v>
-      </c>
-      <c r="K187" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H187">
+        <v>88</v>
+      </c>
+      <c r="I187">
+        <v>0.511</v>
+      </c>
+      <c r="J187">
+        <v>34.7</v>
+      </c>
+      <c r="K187">
+        <v>0.473</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -9111,10 +9078,10 @@
         <v>495</v>
       </c>
       <c r="F188">
-        <v>59.4</v>
+        <v>65</v>
       </c>
       <c r="G188" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H188" t="s">
         <v>495</v>
@@ -9146,10 +9113,10 @@
         <v>495</v>
       </c>
       <c r="F189">
-        <v>56.2</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="G189" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H189" t="s">
         <v>495</v>
@@ -9181,22 +9148,22 @@
         <v>199</v>
       </c>
       <c r="F190">
-        <v>72.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="G190" t="s">
-        <v>708</v>
-      </c>
-      <c r="H190" t="s">
-        <v>712</v>
-      </c>
-      <c r="I190" t="s">
-        <v>712</v>
-      </c>
-      <c r="J190" t="s">
-        <v>712</v>
-      </c>
-      <c r="K190" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H190">
+        <v>54</v>
+      </c>
+      <c r="I190">
+        <v>0.29</v>
+      </c>
+      <c r="J190">
+        <v>29.3</v>
+      </c>
+      <c r="K190">
+        <v>0.427</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -9216,22 +9183,22 @@
         <v>702</v>
       </c>
       <c r="F191">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="G191" t="s">
-        <v>708</v>
-      </c>
-      <c r="H191" t="s">
-        <v>712</v>
-      </c>
-      <c r="I191" t="s">
-        <v>712</v>
-      </c>
-      <c r="J191" t="s">
-        <v>712</v>
-      </c>
-      <c r="K191" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H191">
+        <v>76.3</v>
+      </c>
+      <c r="I191">
+        <v>0.345</v>
+      </c>
+      <c r="J191">
+        <v>31.3</v>
+      </c>
+      <c r="K191">
+        <v>0.57</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -9251,22 +9218,22 @@
         <v>703</v>
       </c>
       <c r="F192">
-        <v>93.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G192" t="s">
-        <v>708</v>
-      </c>
-      <c r="H192" t="s">
-        <v>712</v>
-      </c>
-      <c r="I192" t="s">
-        <v>712</v>
-      </c>
-      <c r="J192" t="s">
-        <v>712</v>
-      </c>
-      <c r="K192" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H192">
+        <v>67.7</v>
+      </c>
+      <c r="I192">
+        <v>0.527</v>
+      </c>
+      <c r="J192">
+        <v>18</v>
+      </c>
+      <c r="K192">
+        <v>0.243</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -9286,10 +9253,10 @@
         <v>495</v>
       </c>
       <c r="F193">
-        <v>53.4</v>
+        <v>52.1</v>
       </c>
       <c r="G193" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H193" t="s">
         <v>495</v>
@@ -9321,22 +9288,22 @@
         <v>704</v>
       </c>
       <c r="F194">
-        <v>94.7</v>
+        <v>105.6</v>
       </c>
       <c r="G194" t="s">
-        <v>708</v>
-      </c>
-      <c r="H194" t="s">
-        <v>712</v>
-      </c>
-      <c r="I194" t="s">
-        <v>712</v>
-      </c>
-      <c r="J194" t="s">
-        <v>712</v>
-      </c>
-      <c r="K194" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H194">
+        <v>65.3</v>
+      </c>
+      <c r="I194">
+        <v>0.403</v>
+      </c>
+      <c r="J194">
+        <v>17</v>
+      </c>
+      <c r="K194">
+        <v>0.254</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -9356,10 +9323,10 @@
         <v>495</v>
       </c>
       <c r="F195">
-        <v>68.7</v>
+        <v>60.7</v>
       </c>
       <c r="G195" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H195" t="s">
         <v>495</v>
@@ -9391,10 +9358,10 @@
         <v>495</v>
       </c>
       <c r="F196">
-        <v>44.6</v>
+        <v>45.6</v>
       </c>
       <c r="G196" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H196" t="s">
         <v>495</v>
@@ -9426,10 +9393,10 @@
         <v>495</v>
       </c>
       <c r="F197">
-        <v>49.9</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H197" t="s">
         <v>495</v>
@@ -9461,22 +9428,22 @@
         <v>207</v>
       </c>
       <c r="F198">
-        <v>70.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="G198" t="s">
-        <v>708</v>
-      </c>
-      <c r="H198" t="s">
-        <v>716</v>
-      </c>
-      <c r="I198" t="s">
-        <v>720</v>
-      </c>
-      <c r="J198" t="s">
-        <v>723</v>
-      </c>
-      <c r="K198" t="s">
-        <v>719</v>
+        <v>709</v>
+      </c>
+      <c r="H198">
+        <v>64.3</v>
+      </c>
+      <c r="I198">
+        <v>0.28</v>
+      </c>
+      <c r="J198">
+        <v>29.3</v>
+      </c>
+      <c r="K198">
+        <v>0.438</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -9496,10 +9463,10 @@
         <v>495</v>
       </c>
       <c r="F199">
-        <v>52.4</v>
+        <v>58.2</v>
       </c>
       <c r="G199" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H199" t="s">
         <v>495</v>
@@ -9531,22 +9498,22 @@
         <v>209</v>
       </c>
       <c r="F200">
-        <v>88.59999999999999</v>
+        <v>101.4</v>
       </c>
       <c r="G200" t="s">
-        <v>708</v>
-      </c>
-      <c r="H200" t="s">
-        <v>712</v>
-      </c>
-      <c r="I200" t="s">
-        <v>712</v>
-      </c>
-      <c r="J200" t="s">
-        <v>712</v>
-      </c>
-      <c r="K200" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H200">
+        <v>54.7</v>
+      </c>
+      <c r="I200">
+        <v>0.36</v>
+      </c>
+      <c r="J200">
+        <v>14.3</v>
+      </c>
+      <c r="K200">
+        <v>0.202</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -9566,22 +9533,22 @@
         <v>705</v>
       </c>
       <c r="F201">
-        <v>88.90000000000001</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="G201" t="s">
-        <v>708</v>
-      </c>
-      <c r="H201" t="s">
-        <v>712</v>
-      </c>
-      <c r="I201" t="s">
-        <v>712</v>
-      </c>
-      <c r="J201" t="s">
-        <v>712</v>
-      </c>
-      <c r="K201" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H201">
+        <v>68.7</v>
+      </c>
+      <c r="I201">
+        <v>0.398</v>
+      </c>
+      <c r="J201">
+        <v>33.3</v>
+      </c>
+      <c r="K201">
+        <v>0.452</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9601,10 +9568,10 @@
         <v>495</v>
       </c>
       <c r="F202">
-        <v>56.7</v>
+        <v>62.2</v>
       </c>
       <c r="G202" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H202" t="s">
         <v>495</v>
@@ -9636,22 +9603,22 @@
         <v>212</v>
       </c>
       <c r="F203">
-        <v>89.3</v>
+        <v>88.5</v>
       </c>
       <c r="G203" t="s">
-        <v>708</v>
-      </c>
-      <c r="H203" t="s">
-        <v>712</v>
-      </c>
-      <c r="I203" t="s">
-        <v>712</v>
-      </c>
-      <c r="J203" t="s">
-        <v>712</v>
-      </c>
-      <c r="K203" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H203">
+        <v>76</v>
+      </c>
+      <c r="I203">
+        <v>0.189</v>
+      </c>
+      <c r="J203">
+        <v>27.7</v>
+      </c>
+      <c r="K203">
+        <v>0.426</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -9671,10 +9638,10 @@
         <v>495</v>
       </c>
       <c r="F204">
-        <v>26.2</v>
+        <v>24.8</v>
       </c>
       <c r="G204" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H204" t="s">
         <v>495</v>
@@ -9706,22 +9673,22 @@
         <v>706</v>
       </c>
       <c r="F205">
-        <v>77</v>
+        <v>68.5</v>
       </c>
       <c r="G205" t="s">
-        <v>708</v>
-      </c>
-      <c r="H205" t="s">
-        <v>712</v>
-      </c>
-      <c r="I205" t="s">
-        <v>712</v>
-      </c>
-      <c r="J205" t="s">
-        <v>712</v>
-      </c>
-      <c r="K205" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H205">
+        <v>71</v>
+      </c>
+      <c r="I205">
+        <v>0.493</v>
+      </c>
+      <c r="J205">
+        <v>24.3</v>
+      </c>
+      <c r="K205">
+        <v>0.33</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -9741,10 +9708,10 @@
         <v>495</v>
       </c>
       <c r="F206">
-        <v>72</v>
+        <v>59.2</v>
       </c>
       <c r="G206" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H206" t="s">
         <v>495</v>
@@ -9776,10 +9743,10 @@
         <v>495</v>
       </c>
       <c r="F207">
-        <v>41.7</v>
+        <v>32.3</v>
       </c>
       <c r="G207" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H207" t="s">
         <v>495</v>
@@ -9811,10 +9778,10 @@
         <v>495</v>
       </c>
       <c r="F208">
-        <v>55.5</v>
+        <v>43.9</v>
       </c>
       <c r="G208" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H208" t="s">
         <v>495</v>
@@ -9846,10 +9813,10 @@
         <v>495</v>
       </c>
       <c r="F209">
-        <v>54.6</v>
+        <v>40.1</v>
       </c>
       <c r="G209" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H209" t="s">
         <v>495</v>
@@ -9881,10 +9848,10 @@
         <v>495</v>
       </c>
       <c r="F210">
-        <v>70.59999999999999</v>
+        <v>55.4</v>
       </c>
       <c r="G210" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H210" t="s">
         <v>495</v>
@@ -9916,10 +9883,10 @@
         <v>495</v>
       </c>
       <c r="F211">
-        <v>14.8</v>
+        <v>8.9</v>
       </c>
       <c r="G211" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H211" t="s">
         <v>495</v>
@@ -9951,10 +9918,10 @@
         <v>495</v>
       </c>
       <c r="F212">
-        <v>79.40000000000001</v>
+        <v>66</v>
       </c>
       <c r="G212" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H212" t="s">
         <v>495</v>
@@ -9986,10 +9953,10 @@
         <v>495</v>
       </c>
       <c r="F213">
-        <v>70.3</v>
+        <v>63.5</v>
       </c>
       <c r="G213" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H213" t="s">
         <v>495</v>
@@ -10021,10 +9988,10 @@
         <v>495</v>
       </c>
       <c r="F214">
-        <v>64.8</v>
+        <v>65.7</v>
       </c>
       <c r="G214" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H214" t="s">
         <v>495</v>
@@ -10056,10 +10023,10 @@
         <v>495</v>
       </c>
       <c r="F215">
-        <v>44.6</v>
+        <v>51.6</v>
       </c>
       <c r="G215" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H215" t="s">
         <v>495</v>
@@ -10091,10 +10058,10 @@
         <v>495</v>
       </c>
       <c r="F216">
-        <v>70.2</v>
+        <v>57</v>
       </c>
       <c r="G216" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H216" t="s">
         <v>495</v>
@@ -10126,22 +10093,22 @@
         <v>226</v>
       </c>
       <c r="F217">
-        <v>71.5</v>
+        <v>82.5</v>
       </c>
       <c r="G217" t="s">
-        <v>708</v>
-      </c>
-      <c r="H217" t="s">
-        <v>712</v>
-      </c>
-      <c r="I217" t="s">
-        <v>712</v>
-      </c>
-      <c r="J217" t="s">
-        <v>712</v>
-      </c>
-      <c r="K217" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H217">
+        <v>63.3</v>
+      </c>
+      <c r="I217">
+        <v>0.395</v>
+      </c>
+      <c r="J217">
+        <v>18</v>
+      </c>
+      <c r="K217">
+        <v>0.262</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -10161,22 +10128,22 @@
         <v>227</v>
       </c>
       <c r="F218">
-        <v>83.3</v>
+        <v>82</v>
       </c>
       <c r="G218" t="s">
-        <v>708</v>
-      </c>
-      <c r="H218" t="s">
-        <v>712</v>
-      </c>
-      <c r="I218" t="s">
-        <v>712</v>
-      </c>
-      <c r="J218" t="s">
-        <v>712</v>
-      </c>
-      <c r="K218" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H218">
+        <v>54.3</v>
+      </c>
+      <c r="I218">
+        <v>0.423</v>
+      </c>
+      <c r="J218">
+        <v>26</v>
+      </c>
+      <c r="K218">
+        <v>0.318</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -10196,10 +10163,10 @@
         <v>495</v>
       </c>
       <c r="F219">
-        <v>-18.2</v>
+        <v>-11.7</v>
       </c>
       <c r="G219" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H219" t="s">
         <v>495</v>
@@ -10231,10 +10198,10 @@
         <v>495</v>
       </c>
       <c r="F220">
-        <v>30.2</v>
+        <v>38.6</v>
       </c>
       <c r="G220" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H220" t="s">
         <v>495</v>
@@ -10266,10 +10233,10 @@
         <v>495</v>
       </c>
       <c r="F221">
-        <v>46.7</v>
+        <v>41.5</v>
       </c>
       <c r="G221" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H221" t="s">
         <v>495</v>
@@ -10301,22 +10268,22 @@
         <v>231</v>
       </c>
       <c r="F222">
-        <v>90.2</v>
+        <v>83.2</v>
       </c>
       <c r="G222" t="s">
-        <v>708</v>
-      </c>
-      <c r="H222" t="s">
-        <v>712</v>
-      </c>
-      <c r="I222" t="s">
-        <v>712</v>
-      </c>
-      <c r="J222" t="s">
-        <v>712</v>
-      </c>
-      <c r="K222" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H222">
+        <v>72.3</v>
+      </c>
+      <c r="I222">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="J222">
+        <v>27.7</v>
+      </c>
+      <c r="K222">
+        <v>0.384</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -10336,10 +10303,10 @@
         <v>495</v>
       </c>
       <c r="F223">
-        <v>44.9</v>
+        <v>60.9</v>
       </c>
       <c r="G223" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H223" t="s">
         <v>495</v>
@@ -10371,10 +10338,10 @@
         <v>495</v>
       </c>
       <c r="F224">
-        <v>67</v>
+        <v>68.7</v>
       </c>
       <c r="G224" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H224" t="s">
         <v>495</v>
@@ -10406,10 +10373,10 @@
         <v>495</v>
       </c>
       <c r="F225">
-        <v>44.2</v>
+        <v>42.9</v>
       </c>
       <c r="G225" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H225" t="s">
         <v>495</v>
@@ -10441,10 +10408,10 @@
         <v>495</v>
       </c>
       <c r="F226">
-        <v>52.6</v>
+        <v>47</v>
       </c>
       <c r="G226" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H226" t="s">
         <v>495</v>
@@ -10476,22 +10443,22 @@
         <v>236</v>
       </c>
       <c r="F227">
-        <v>95.40000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="G227" t="s">
-        <v>708</v>
-      </c>
-      <c r="H227" t="s">
-        <v>712</v>
-      </c>
-      <c r="I227" t="s">
-        <v>712</v>
-      </c>
-      <c r="J227" t="s">
-        <v>712</v>
-      </c>
-      <c r="K227" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H227">
+        <v>58.7</v>
+      </c>
+      <c r="I227">
+        <v>0.455</v>
+      </c>
+      <c r="J227">
+        <v>31.3</v>
+      </c>
+      <c r="K227">
+        <v>0.405</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -10511,22 +10478,22 @@
         <v>237</v>
       </c>
       <c r="F228">
-        <v>77.09999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="G228" t="s">
-        <v>708</v>
-      </c>
-      <c r="H228" t="s">
-        <v>712</v>
-      </c>
-      <c r="I228" t="s">
-        <v>712</v>
-      </c>
-      <c r="J228" t="s">
-        <v>712</v>
-      </c>
-      <c r="K228" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H228">
+        <v>71</v>
+      </c>
+      <c r="I228">
+        <v>0.465</v>
+      </c>
+      <c r="J228">
+        <v>39.7</v>
+      </c>
+      <c r="K228">
+        <v>0.524</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -10546,22 +10513,22 @@
         <v>707</v>
       </c>
       <c r="F229">
-        <v>109</v>
+        <v>109.6</v>
       </c>
       <c r="G229" t="s">
-        <v>708</v>
-      </c>
-      <c r="H229" t="s">
-        <v>712</v>
-      </c>
-      <c r="I229" t="s">
-        <v>712</v>
-      </c>
-      <c r="J229" t="s">
-        <v>712</v>
-      </c>
-      <c r="K229" t="s">
-        <v>712</v>
+        <v>709</v>
+      </c>
+      <c r="H229">
+        <v>72.3</v>
+      </c>
+      <c r="I229">
+        <v>0.493</v>
+      </c>
+      <c r="J229">
+        <v>25.7</v>
+      </c>
+      <c r="K229">
+        <v>0.389</v>
       </c>
     </row>
   </sheetData>

--- a/data/stats.xlsx
+++ b/data/stats.xlsx
@@ -2673,22 +2673,22 @@
         <v>14</v>
       </c>
       <c r="F5">
-        <v>103.1</v>
+        <v>105.1</v>
       </c>
       <c r="G5" t="s">
         <v>709</v>
       </c>
       <c r="H5">
-        <v>78</v>
+        <v>65.3</v>
       </c>
       <c r="I5">
-        <v>0.329</v>
+        <v>0.536</v>
       </c>
       <c r="J5">
-        <v>20.3</v>
+        <v>21.7</v>
       </c>
       <c r="K5">
-        <v>0.394</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2708,22 +2708,22 @@
         <v>671</v>
       </c>
       <c r="F6">
-        <v>80.7</v>
+        <v>84.7</v>
       </c>
       <c r="G6" t="s">
         <v>709</v>
       </c>
       <c r="H6">
-        <v>53.3</v>
+        <v>54.3</v>
       </c>
       <c r="I6">
-        <v>0.319</v>
+        <v>0.454</v>
       </c>
       <c r="J6">
-        <v>19.7</v>
+        <v>22.3</v>
       </c>
       <c r="K6">
-        <v>0.265</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2784,16 +2784,16 @@
         <v>709</v>
       </c>
       <c r="H8">
-        <v>68</v>
+        <v>74.7</v>
       </c>
       <c r="I8">
-        <v>0.353</v>
+        <v>0.308</v>
       </c>
       <c r="J8">
-        <v>12.7</v>
+        <v>18.7</v>
       </c>
       <c r="K8">
-        <v>0.196</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2883,22 +2883,22 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>110.5</v>
+        <v>112.7</v>
       </c>
       <c r="G11" t="s">
         <v>709</v>
       </c>
       <c r="H11">
-        <v>78.7</v>
+        <v>71.7</v>
       </c>
       <c r="I11">
-        <v>0.284</v>
+        <v>0.447</v>
       </c>
       <c r="J11">
-        <v>14.3</v>
+        <v>25.7</v>
       </c>
       <c r="K11">
-        <v>0.225</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3093,22 +3093,22 @@
         <v>672</v>
       </c>
       <c r="F17">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="G17" t="s">
         <v>709</v>
       </c>
       <c r="H17">
-        <v>75.3</v>
+        <v>61.3</v>
       </c>
       <c r="I17">
-        <v>0.239</v>
+        <v>0.337</v>
       </c>
       <c r="J17">
-        <v>18.7</v>
+        <v>21.7</v>
       </c>
       <c r="K17">
-        <v>0.272</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3128,7 +3128,7 @@
         <v>495</v>
       </c>
       <c r="F18">
-        <v>86.90000000000001</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="G18" t="s">
         <v>710</v>
@@ -3163,22 +3163,22 @@
         <v>28</v>
       </c>
       <c r="F19">
-        <v>78.40000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="G19" t="s">
         <v>709</v>
       </c>
       <c r="H19">
-        <v>74</v>
+        <v>78.3</v>
       </c>
       <c r="I19">
-        <v>0.396</v>
+        <v>0.345</v>
       </c>
       <c r="J19">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.375</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3233,22 +3233,22 @@
         <v>30</v>
       </c>
       <c r="F21">
-        <v>90.2</v>
+        <v>91.7</v>
       </c>
       <c r="G21" t="s">
         <v>709</v>
       </c>
       <c r="H21">
-        <v>58.7</v>
+        <v>56.7</v>
       </c>
       <c r="I21">
-        <v>0.438</v>
+        <v>0.441</v>
       </c>
       <c r="J21">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K21">
-        <v>0.448</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3303,22 +3303,22 @@
         <v>32</v>
       </c>
       <c r="F23">
-        <v>109.3</v>
+        <v>108.7</v>
       </c>
       <c r="G23" t="s">
         <v>709</v>
       </c>
       <c r="H23">
-        <v>71.3</v>
+        <v>68.7</v>
       </c>
       <c r="I23">
-        <v>0.584</v>
+        <v>0.369</v>
       </c>
       <c r="J23">
-        <v>27.3</v>
+        <v>28</v>
       </c>
       <c r="K23">
-        <v>0.368</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3338,22 +3338,22 @@
         <v>33</v>
       </c>
       <c r="F24">
-        <v>102.8</v>
+        <v>105.6</v>
       </c>
       <c r="G24" t="s">
         <v>709</v>
       </c>
       <c r="H24">
-        <v>57.3</v>
+        <v>69.7</v>
       </c>
       <c r="I24">
-        <v>0.477</v>
+        <v>0.421</v>
       </c>
       <c r="J24">
-        <v>14.7</v>
+        <v>12</v>
       </c>
       <c r="K24">
-        <v>0.169</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3513,22 +3513,22 @@
         <v>673</v>
       </c>
       <c r="F29">
-        <v>83.2</v>
+        <v>82.2</v>
       </c>
       <c r="G29" t="s">
         <v>709</v>
       </c>
       <c r="H29">
-        <v>59.7</v>
+        <v>62</v>
       </c>
       <c r="I29">
-        <v>0.486</v>
+        <v>0.468</v>
       </c>
       <c r="J29">
-        <v>31.3</v>
+        <v>36</v>
       </c>
       <c r="K29">
-        <v>0.403</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3653,22 +3653,22 @@
         <v>42</v>
       </c>
       <c r="F33">
-        <v>108.2</v>
+        <v>107.4</v>
       </c>
       <c r="G33" t="s">
         <v>709</v>
       </c>
       <c r="H33">
-        <v>64.3</v>
+        <v>74.7</v>
       </c>
       <c r="I33">
-        <v>0.632</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="J33">
-        <v>16.3</v>
+        <v>21.7</v>
       </c>
       <c r="K33">
-        <v>0.254</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3688,22 +3688,22 @@
         <v>674</v>
       </c>
       <c r="F34">
-        <v>80.3</v>
+        <v>80.7</v>
       </c>
       <c r="G34" t="s">
         <v>709</v>
       </c>
       <c r="H34">
-        <v>77.3</v>
+        <v>79.3</v>
       </c>
       <c r="I34">
-        <v>0.647</v>
+        <v>0.555</v>
       </c>
       <c r="J34">
-        <v>29.7</v>
+        <v>34.7</v>
       </c>
       <c r="K34">
-        <v>0.362</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3828,22 +3828,22 @@
         <v>675</v>
       </c>
       <c r="F38">
-        <v>97</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="G38" t="s">
         <v>709</v>
       </c>
       <c r="H38">
-        <v>74</v>
+        <v>76.7</v>
       </c>
       <c r="I38">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="J38">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K38">
-        <v>0.487</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3863,22 +3863,22 @@
         <v>48</v>
       </c>
       <c r="F39">
-        <v>94.8</v>
+        <v>92</v>
       </c>
       <c r="G39" t="s">
         <v>709</v>
       </c>
       <c r="H39">
-        <v>57</v>
+        <v>55.3</v>
       </c>
       <c r="I39">
-        <v>0.427</v>
+        <v>0.277</v>
       </c>
       <c r="J39">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K39">
-        <v>0.367</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3898,22 +3898,22 @@
         <v>676</v>
       </c>
       <c r="F40">
-        <v>95.3</v>
+        <v>94.5</v>
       </c>
       <c r="G40" t="s">
         <v>709</v>
       </c>
       <c r="H40">
-        <v>75.3</v>
+        <v>72.7</v>
       </c>
       <c r="I40">
-        <v>0.456</v>
+        <v>0.413</v>
       </c>
       <c r="J40">
-        <v>27.3</v>
+        <v>21.3</v>
       </c>
       <c r="K40">
-        <v>0.404</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3933,22 +3933,22 @@
         <v>50</v>
       </c>
       <c r="F41">
-        <v>114.3</v>
+        <v>113.2</v>
       </c>
       <c r="G41" t="s">
         <v>709</v>
       </c>
       <c r="H41">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I41">
-        <v>0.502</v>
+        <v>0.48</v>
       </c>
       <c r="J41">
-        <v>17.7</v>
+        <v>21.7</v>
       </c>
       <c r="K41">
-        <v>0.315</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3968,22 +3968,22 @@
         <v>51</v>
       </c>
       <c r="F42">
-        <v>102.2</v>
+        <v>100.2</v>
       </c>
       <c r="G42" t="s">
         <v>709</v>
       </c>
       <c r="H42">
-        <v>76.3</v>
+        <v>81</v>
       </c>
       <c r="I42">
-        <v>0.498</v>
+        <v>0.395</v>
       </c>
       <c r="J42">
-        <v>20.7</v>
+        <v>23.7</v>
       </c>
       <c r="K42">
-        <v>0.313</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -4003,22 +4003,22 @@
         <v>52</v>
       </c>
       <c r="F43">
-        <v>97.90000000000001</v>
+        <v>103.1</v>
       </c>
       <c r="G43" t="s">
         <v>709</v>
       </c>
       <c r="H43">
-        <v>62</v>
+        <v>62.7</v>
       </c>
       <c r="I43">
-        <v>0.355</v>
+        <v>0.473</v>
       </c>
       <c r="J43">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K43">
-        <v>0.339</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -4073,22 +4073,22 @@
         <v>54</v>
       </c>
       <c r="F45">
-        <v>72.59999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="G45" t="s">
         <v>709</v>
       </c>
       <c r="H45">
-        <v>72.7</v>
+        <v>71</v>
       </c>
       <c r="I45">
-        <v>0.399</v>
+        <v>0.46</v>
       </c>
       <c r="J45">
-        <v>27</v>
+        <v>30.7</v>
       </c>
       <c r="K45">
-        <v>0.401</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -4263,7 +4263,7 @@
         <v>29</v>
       </c>
       <c r="K50">
-        <v>0.435</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -4318,22 +4318,22 @@
         <v>678</v>
       </c>
       <c r="F52">
-        <v>84.8</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="G52" t="s">
         <v>709</v>
       </c>
       <c r="H52">
-        <v>73.3</v>
+        <v>66</v>
       </c>
       <c r="I52">
-        <v>0.364</v>
+        <v>0.404</v>
       </c>
       <c r="J52">
         <v>28.7</v>
       </c>
       <c r="K52">
-        <v>0.448</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -4353,22 +4353,22 @@
         <v>62</v>
       </c>
       <c r="F53">
-        <v>80.90000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="G53" t="s">
         <v>709</v>
       </c>
       <c r="H53">
-        <v>63.7</v>
+        <v>70.3</v>
       </c>
       <c r="I53">
-        <v>0.372</v>
+        <v>0.422</v>
       </c>
       <c r="J53">
-        <v>33.3</v>
+        <v>33</v>
       </c>
       <c r="K53">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -4423,22 +4423,22 @@
         <v>64</v>
       </c>
       <c r="F55">
-        <v>95.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G55" t="s">
         <v>709</v>
       </c>
       <c r="H55">
-        <v>71.7</v>
+        <v>72.3</v>
       </c>
       <c r="I55">
-        <v>0.307</v>
+        <v>0.438</v>
       </c>
       <c r="J55">
-        <v>20.7</v>
+        <v>22.7</v>
       </c>
       <c r="K55">
-        <v>0.279</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -4458,22 +4458,22 @@
         <v>65</v>
       </c>
       <c r="F56">
-        <v>99.5</v>
+        <v>100.3</v>
       </c>
       <c r="G56" t="s">
         <v>709</v>
       </c>
       <c r="H56">
-        <v>71.7</v>
+        <v>70.3</v>
       </c>
       <c r="I56">
-        <v>0.451</v>
+        <v>0.445</v>
       </c>
       <c r="J56">
-        <v>25</v>
+        <v>21.7</v>
       </c>
       <c r="K56">
-        <v>0.393</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -4563,22 +4563,22 @@
         <v>679</v>
       </c>
       <c r="F59">
-        <v>78.2</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s">
         <v>709</v>
       </c>
       <c r="H59">
-        <v>78.3</v>
+        <v>74</v>
       </c>
       <c r="I59">
-        <v>0.417</v>
+        <v>0.387</v>
       </c>
       <c r="J59">
-        <v>31</v>
+        <v>27.7</v>
       </c>
       <c r="K59">
-        <v>0.408</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4598,22 +4598,22 @@
         <v>69</v>
       </c>
       <c r="F60">
-        <v>103.6</v>
+        <v>102.4</v>
       </c>
       <c r="G60" t="s">
         <v>709</v>
       </c>
       <c r="H60">
-        <v>73.7</v>
+        <v>71.7</v>
       </c>
       <c r="I60">
-        <v>0.326</v>
+        <v>0.335</v>
       </c>
       <c r="J60">
-        <v>22.7</v>
+        <v>28.7</v>
       </c>
       <c r="K60">
-        <v>0.273</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4773,22 +4773,22 @@
         <v>74</v>
       </c>
       <c r="F65">
-        <v>100.9</v>
+        <v>100.2</v>
       </c>
       <c r="G65" t="s">
         <v>709</v>
       </c>
       <c r="H65">
-        <v>63</v>
+        <v>65.3</v>
       </c>
       <c r="I65">
-        <v>0.402</v>
+        <v>0.541</v>
       </c>
       <c r="J65">
-        <v>22.7</v>
+        <v>28.3</v>
       </c>
       <c r="K65">
-        <v>0.301</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4808,22 +4808,22 @@
         <v>75</v>
       </c>
       <c r="F66">
-        <v>74.2</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G66" t="s">
         <v>709</v>
       </c>
       <c r="H66">
-        <v>74.7</v>
+        <v>74</v>
       </c>
       <c r="I66">
-        <v>0.585</v>
+        <v>0.477</v>
       </c>
       <c r="J66">
-        <v>25</v>
+        <v>11.3</v>
       </c>
       <c r="K66">
-        <v>0.355</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4983,22 +4983,22 @@
         <v>680</v>
       </c>
       <c r="F71">
-        <v>89.5</v>
+        <v>86.7</v>
       </c>
       <c r="G71" t="s">
         <v>709</v>
       </c>
       <c r="H71">
-        <v>78.3</v>
+        <v>81</v>
       </c>
       <c r="I71">
-        <v>0.221</v>
+        <v>0.321</v>
       </c>
       <c r="J71">
-        <v>31.7</v>
+        <v>39.7</v>
       </c>
       <c r="K71">
-        <v>0.436</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -5018,22 +5018,22 @@
         <v>681</v>
       </c>
       <c r="F72">
-        <v>103.1</v>
+        <v>105.1</v>
       </c>
       <c r="G72" t="s">
         <v>709</v>
       </c>
       <c r="H72">
-        <v>73.7</v>
+        <v>69</v>
       </c>
       <c r="I72">
-        <v>0.267</v>
+        <v>0.256</v>
       </c>
       <c r="J72">
-        <v>14</v>
+        <v>20.7</v>
       </c>
       <c r="K72">
-        <v>0.225</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -5228,22 +5228,22 @@
         <v>683</v>
       </c>
       <c r="F78">
-        <v>113.1</v>
+        <v>119.6</v>
       </c>
       <c r="G78" t="s">
         <v>709</v>
       </c>
       <c r="H78">
-        <v>57.3</v>
+        <v>60</v>
       </c>
       <c r="I78">
-        <v>0.459</v>
+        <v>0.517</v>
       </c>
       <c r="J78">
-        <v>11.7</v>
+        <v>17</v>
       </c>
       <c r="K78">
-        <v>0.182</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5298,22 +5298,22 @@
         <v>89</v>
       </c>
       <c r="F80">
-        <v>113.4</v>
+        <v>110.3</v>
       </c>
       <c r="G80" t="s">
         <v>709</v>
       </c>
       <c r="H80">
-        <v>70.7</v>
+        <v>72.3</v>
       </c>
       <c r="I80">
-        <v>0.519</v>
+        <v>0.53</v>
       </c>
       <c r="J80">
-        <v>23.7</v>
+        <v>33</v>
       </c>
       <c r="K80">
-        <v>0.345</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -5368,22 +5368,22 @@
         <v>91</v>
       </c>
       <c r="F82">
-        <v>104.4</v>
+        <v>102.8</v>
       </c>
       <c r="G82" t="s">
         <v>709</v>
       </c>
       <c r="H82">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I82">
-        <v>0.538</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="J82">
-        <v>20.3</v>
+        <v>19</v>
       </c>
       <c r="K82">
-        <v>0.305</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5788,22 +5788,22 @@
         <v>103</v>
       </c>
       <c r="F94">
-        <v>92</v>
+        <v>93.2</v>
       </c>
       <c r="G94" t="s">
         <v>709</v>
       </c>
       <c r="H94">
-        <v>64</v>
+        <v>58.7</v>
       </c>
       <c r="I94">
-        <v>0.359</v>
+        <v>0.392</v>
       </c>
       <c r="J94">
         <v>16</v>
       </c>
       <c r="K94">
-        <v>0.215</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -5823,22 +5823,22 @@
         <v>104</v>
       </c>
       <c r="F95">
-        <v>74.7</v>
+        <v>77.5</v>
       </c>
       <c r="G95" t="s">
         <v>709</v>
       </c>
       <c r="H95">
-        <v>68</v>
+        <v>72.3</v>
       </c>
       <c r="I95">
-        <v>0.284</v>
+        <v>0.318</v>
       </c>
       <c r="J95">
-        <v>18.3</v>
+        <v>30.3</v>
       </c>
       <c r="K95">
-        <v>0.274</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -5858,22 +5858,22 @@
         <v>105</v>
       </c>
       <c r="F96">
-        <v>106</v>
+        <v>107.3</v>
       </c>
       <c r="G96" t="s">
         <v>709</v>
       </c>
       <c r="H96">
-        <v>65</v>
+        <v>65.7</v>
       </c>
       <c r="I96">
-        <v>0.4</v>
+        <v>0.416</v>
       </c>
       <c r="J96">
-        <v>12</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K96">
-        <v>0.207</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -5893,22 +5893,22 @@
         <v>688</v>
       </c>
       <c r="F97">
-        <v>81.5</v>
+        <v>84.8</v>
       </c>
       <c r="G97" t="s">
         <v>709</v>
       </c>
       <c r="H97">
-        <v>70.3</v>
+        <v>68.3</v>
       </c>
       <c r="I97">
-        <v>0.483</v>
+        <v>0.478</v>
       </c>
       <c r="J97">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K97">
-        <v>0.409</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -6033,22 +6033,22 @@
         <v>110</v>
       </c>
       <c r="F101">
-        <v>94.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G101" t="s">
         <v>709</v>
       </c>
       <c r="H101">
-        <v>60</v>
+        <v>58.3</v>
       </c>
       <c r="I101">
-        <v>0.633</v>
+        <v>0.554</v>
       </c>
       <c r="J101">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="K101">
-        <v>0.306</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -6383,22 +6383,22 @@
         <v>120</v>
       </c>
       <c r="F111">
-        <v>106.8</v>
+        <v>101.6</v>
       </c>
       <c r="G111" t="s">
         <v>709</v>
       </c>
       <c r="H111">
-        <v>61.3</v>
+        <v>55.3</v>
       </c>
       <c r="I111">
-        <v>0.663</v>
+        <v>0.524</v>
       </c>
       <c r="J111">
-        <v>20.3</v>
+        <v>24.3</v>
       </c>
       <c r="K111">
-        <v>0.275</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -6488,22 +6488,22 @@
         <v>123</v>
       </c>
       <c r="F114">
-        <v>99.3</v>
+        <v>100.1</v>
       </c>
       <c r="G114" t="s">
         <v>709</v>
       </c>
       <c r="H114">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I114">
-        <v>0.385</v>
+        <v>0.412</v>
       </c>
       <c r="J114">
-        <v>27.3</v>
+        <v>31</v>
       </c>
       <c r="K114">
-        <v>0.441</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -6593,22 +6593,22 @@
         <v>689</v>
       </c>
       <c r="F117">
-        <v>97.8</v>
+        <v>95.7</v>
       </c>
       <c r="G117" t="s">
         <v>709</v>
       </c>
       <c r="H117">
-        <v>71.3</v>
+        <v>69.3</v>
       </c>
       <c r="I117">
-        <v>0.369</v>
+        <v>0.361</v>
       </c>
       <c r="J117">
         <v>24</v>
       </c>
       <c r="K117">
-        <v>0.336</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -6628,22 +6628,22 @@
         <v>127</v>
       </c>
       <c r="F118">
-        <v>88</v>
+        <v>86.2</v>
       </c>
       <c r="G118" t="s">
         <v>709</v>
       </c>
       <c r="H118">
-        <v>79</v>
+        <v>83.3</v>
       </c>
       <c r="I118">
-        <v>0.62</v>
+        <v>0.476</v>
       </c>
       <c r="J118">
-        <v>31</v>
+        <v>39.3</v>
       </c>
       <c r="K118">
-        <v>0.467</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -6733,22 +6733,22 @@
         <v>130</v>
       </c>
       <c r="F121">
-        <v>93.5</v>
+        <v>94.2</v>
       </c>
       <c r="G121" t="s">
         <v>709</v>
       </c>
       <c r="H121">
-        <v>73</v>
+        <v>74.7</v>
       </c>
       <c r="I121">
-        <v>0.47</v>
+        <v>0.504</v>
       </c>
       <c r="J121">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K121">
-        <v>0.352</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -6768,22 +6768,22 @@
         <v>131</v>
       </c>
       <c r="F122">
-        <v>75.2</v>
+        <v>77</v>
       </c>
       <c r="G122" t="s">
         <v>709</v>
       </c>
       <c r="H122">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I122">
-        <v>0.351</v>
+        <v>0.346</v>
       </c>
       <c r="J122">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K122">
-        <v>0.417</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -7013,22 +7013,22 @@
         <v>692</v>
       </c>
       <c r="F129">
-        <v>110</v>
+        <v>112.4</v>
       </c>
       <c r="G129" t="s">
         <v>709</v>
       </c>
       <c r="H129">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I129">
-        <v>0.32</v>
+        <v>0.411</v>
       </c>
       <c r="J129">
-        <v>16</v>
+        <v>19.3</v>
       </c>
       <c r="K129">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -7048,7 +7048,7 @@
         <v>139</v>
       </c>
       <c r="F130">
-        <v>91.59999999999999</v>
+        <v>92</v>
       </c>
       <c r="G130" t="s">
         <v>709</v>
@@ -7118,22 +7118,22 @@
         <v>693</v>
       </c>
       <c r="F132">
-        <v>106.7</v>
+        <v>102.5</v>
       </c>
       <c r="G132" t="s">
         <v>709</v>
       </c>
       <c r="H132">
-        <v>74</v>
+        <v>76.3</v>
       </c>
       <c r="I132">
-        <v>0.459</v>
+        <v>0.345</v>
       </c>
       <c r="J132">
-        <v>15.7</v>
+        <v>26</v>
       </c>
       <c r="K132">
-        <v>0.215</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -7153,22 +7153,22 @@
         <v>142</v>
       </c>
       <c r="F133">
-        <v>117.5</v>
+        <v>119.2</v>
       </c>
       <c r="G133" t="s">
         <v>709</v>
       </c>
       <c r="H133">
-        <v>60.7</v>
+        <v>64.3</v>
       </c>
       <c r="I133">
-        <v>0.731</v>
+        <v>0.513</v>
       </c>
       <c r="J133">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="K133">
-        <v>0.292</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -7188,22 +7188,22 @@
         <v>143</v>
       </c>
       <c r="F134">
-        <v>89.8</v>
+        <v>87</v>
       </c>
       <c r="G134" t="s">
         <v>709</v>
       </c>
       <c r="H134">
-        <v>66.7</v>
+        <v>63.7</v>
       </c>
       <c r="I134">
-        <v>0.415</v>
+        <v>0.445</v>
       </c>
       <c r="J134">
-        <v>29.7</v>
+        <v>28.7</v>
       </c>
       <c r="K134">
-        <v>0.454</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -7328,22 +7328,22 @@
         <v>147</v>
       </c>
       <c r="F138">
-        <v>92.2</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="G138" t="s">
         <v>709</v>
       </c>
       <c r="H138">
-        <v>68</v>
+        <v>68.3</v>
       </c>
       <c r="I138">
-        <v>0.51</v>
+        <v>0.537</v>
       </c>
       <c r="J138">
-        <v>10.3</v>
+        <v>17</v>
       </c>
       <c r="K138">
-        <v>0.172</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -7363,22 +7363,22 @@
         <v>148</v>
       </c>
       <c r="F139">
-        <v>102.3</v>
+        <v>101.1</v>
       </c>
       <c r="G139" t="s">
         <v>709</v>
       </c>
       <c r="H139">
-        <v>68.3</v>
+        <v>70.3</v>
       </c>
       <c r="I139">
-        <v>0.502</v>
+        <v>0.573</v>
       </c>
       <c r="J139">
-        <v>28</v>
+        <v>32.7</v>
       </c>
       <c r="K139">
-        <v>0.424</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -7398,22 +7398,22 @@
         <v>149</v>
       </c>
       <c r="F140">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="G140" t="s">
         <v>709</v>
       </c>
       <c r="H140">
-        <v>79.3</v>
+        <v>71.7</v>
       </c>
       <c r="I140">
-        <v>0.445</v>
+        <v>0.581</v>
       </c>
       <c r="J140">
-        <v>29</v>
+        <v>32.3</v>
       </c>
       <c r="K140">
-        <v>0.446</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -7468,22 +7468,22 @@
         <v>151</v>
       </c>
       <c r="F142">
-        <v>89.8</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="G142" t="s">
         <v>709</v>
       </c>
       <c r="H142">
-        <v>55</v>
+        <v>56.3</v>
       </c>
       <c r="I142">
-        <v>0.394</v>
+        <v>0.509</v>
       </c>
       <c r="J142">
-        <v>22.7</v>
+        <v>17.7</v>
       </c>
       <c r="K142">
-        <v>0.393</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -7608,22 +7608,22 @@
         <v>155</v>
       </c>
       <c r="F146">
-        <v>95.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="G146" t="s">
         <v>709</v>
       </c>
       <c r="H146">
-        <v>73</v>
+        <v>71.7</v>
       </c>
       <c r="I146">
-        <v>0.338</v>
+        <v>0.344</v>
       </c>
       <c r="J146">
-        <v>22</v>
+        <v>17.7</v>
       </c>
       <c r="K146">
-        <v>0.4</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -7713,7 +7713,7 @@
         <v>696</v>
       </c>
       <c r="F149">
-        <v>88.90000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="G149" t="s">
         <v>709</v>
@@ -7748,22 +7748,22 @@
         <v>697</v>
       </c>
       <c r="F150">
-        <v>88.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="G150" t="s">
         <v>709</v>
       </c>
       <c r="H150">
-        <v>67.7</v>
+        <v>67.3</v>
       </c>
       <c r="I150">
-        <v>0.443</v>
+        <v>0.475</v>
       </c>
       <c r="J150">
-        <v>14</v>
+        <v>20.3</v>
       </c>
       <c r="K150">
-        <v>0.199</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7783,22 +7783,22 @@
         <v>698</v>
       </c>
       <c r="F151">
-        <v>72.7</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G151" t="s">
         <v>709</v>
       </c>
       <c r="H151">
-        <v>68.3</v>
+        <v>55.3</v>
       </c>
       <c r="I151">
-        <v>0.234</v>
+        <v>0.289</v>
       </c>
       <c r="J151">
         <v>32</v>
       </c>
       <c r="K151">
-        <v>0.48</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7853,22 +7853,22 @@
         <v>162</v>
       </c>
       <c r="F153">
-        <v>78.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="G153" t="s">
         <v>709</v>
       </c>
       <c r="H153">
-        <v>72.7</v>
+        <v>70</v>
       </c>
       <c r="I153">
-        <v>0.417</v>
+        <v>0.3</v>
       </c>
       <c r="J153">
-        <v>25</v>
+        <v>22.3</v>
       </c>
       <c r="K153">
-        <v>0.352</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7888,22 +7888,22 @@
         <v>163</v>
       </c>
       <c r="F154">
-        <v>99.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G154" t="s">
         <v>709</v>
       </c>
       <c r="H154">
-        <v>76.7</v>
+        <v>74.7</v>
       </c>
       <c r="I154">
-        <v>0.374</v>
+        <v>0.353</v>
       </c>
       <c r="J154">
-        <v>21</v>
+        <v>31.7</v>
       </c>
       <c r="K154">
-        <v>0.292</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -8104,10 +8104,10 @@
         <v>709</v>
       </c>
       <c r="H160">
-        <v>70.3</v>
+        <v>69.3</v>
       </c>
       <c r="I160">
-        <v>0.289</v>
+        <v>0.293</v>
       </c>
       <c r="J160">
         <v>48.7</v>
@@ -8168,22 +8168,22 @@
         <v>171</v>
       </c>
       <c r="F162">
-        <v>98.3</v>
+        <v>96.7</v>
       </c>
       <c r="G162" t="s">
         <v>709</v>
       </c>
       <c r="H162">
-        <v>63.7</v>
+        <v>71.3</v>
       </c>
       <c r="I162">
-        <v>0.335</v>
+        <v>0.285</v>
       </c>
       <c r="J162">
-        <v>23.3</v>
+        <v>20.3</v>
       </c>
       <c r="K162">
-        <v>0.352</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -8203,22 +8203,22 @@
         <v>172</v>
       </c>
       <c r="F163">
-        <v>77.2</v>
+        <v>79.3</v>
       </c>
       <c r="G163" t="s">
         <v>709</v>
       </c>
       <c r="H163">
-        <v>70.7</v>
+        <v>77.7</v>
       </c>
       <c r="I163">
-        <v>0.292</v>
+        <v>0.262</v>
       </c>
       <c r="J163">
-        <v>17.3</v>
+        <v>18.7</v>
       </c>
       <c r="K163">
-        <v>0.268</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -8308,22 +8308,22 @@
         <v>175</v>
       </c>
       <c r="F166">
-        <v>93.7</v>
+        <v>95.3</v>
       </c>
       <c r="G166" t="s">
         <v>709</v>
       </c>
       <c r="H166">
-        <v>62.7</v>
+        <v>66.7</v>
       </c>
       <c r="I166">
-        <v>0.309</v>
+        <v>0.43</v>
       </c>
       <c r="J166">
         <v>34.3</v>
       </c>
       <c r="K166">
-        <v>0.477</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -8378,22 +8378,22 @@
         <v>700</v>
       </c>
       <c r="F168">
-        <v>81.59999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="G168" t="s">
         <v>709</v>
       </c>
       <c r="H168">
-        <v>66.3</v>
+        <v>72.7</v>
       </c>
       <c r="I168">
-        <v>0.407</v>
+        <v>0.372</v>
       </c>
       <c r="J168">
-        <v>18</v>
+        <v>26.3</v>
       </c>
       <c r="K168">
-        <v>0.278</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -8483,22 +8483,22 @@
         <v>180</v>
       </c>
       <c r="F171">
-        <v>108.5</v>
+        <v>105.1</v>
       </c>
       <c r="G171" t="s">
         <v>709</v>
       </c>
       <c r="H171">
-        <v>73.7</v>
+        <v>72.7</v>
       </c>
       <c r="I171">
-        <v>0.493</v>
+        <v>0.5</v>
       </c>
       <c r="J171">
-        <v>18</v>
+        <v>21.7</v>
       </c>
       <c r="K171">
-        <v>0.269</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -8588,7 +8588,7 @@
         <v>183</v>
       </c>
       <c r="F174">
-        <v>108</v>
+        <v>106.7</v>
       </c>
       <c r="G174" t="s">
         <v>709</v>
@@ -8597,13 +8597,13 @@
         <v>67.7</v>
       </c>
       <c r="I174">
-        <v>0.36</v>
+        <v>0.217</v>
       </c>
       <c r="J174">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K174">
-        <v>0.259</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -8798,22 +8798,22 @@
         <v>189</v>
       </c>
       <c r="F180">
-        <v>83.3</v>
+        <v>80.7</v>
       </c>
       <c r="G180" t="s">
         <v>709</v>
       </c>
       <c r="H180">
-        <v>64</v>
+        <v>65.3</v>
       </c>
       <c r="I180">
-        <v>0.474</v>
+        <v>0.219</v>
       </c>
       <c r="J180">
-        <v>28</v>
+        <v>29.3</v>
       </c>
       <c r="K180">
-        <v>0.38</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -8868,7 +8868,7 @@
         <v>191</v>
       </c>
       <c r="F182">
-        <v>99.5</v>
+        <v>101.6</v>
       </c>
       <c r="G182" t="s">
         <v>709</v>
@@ -8877,13 +8877,13 @@
         <v>64.3</v>
       </c>
       <c r="I182">
-        <v>0.352</v>
+        <v>0.378</v>
       </c>
       <c r="J182">
-        <v>19.7</v>
+        <v>14.3</v>
       </c>
       <c r="K182">
-        <v>0.304</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -8938,22 +8938,22 @@
         <v>193</v>
       </c>
       <c r="F184">
-        <v>92.09999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="G184" t="s">
         <v>709</v>
       </c>
       <c r="H184">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I184">
-        <v>0.469</v>
+        <v>0.398</v>
       </c>
       <c r="J184">
-        <v>21.3</v>
+        <v>32.3</v>
       </c>
       <c r="K184">
-        <v>0.267</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8973,22 +8973,22 @@
         <v>194</v>
       </c>
       <c r="F185">
-        <v>76</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="G185" t="s">
         <v>709</v>
       </c>
       <c r="H185">
-        <v>69.7</v>
+        <v>67.7</v>
       </c>
       <c r="I185">
-        <v>0.349</v>
+        <v>0.34</v>
       </c>
       <c r="J185">
-        <v>28</v>
+        <v>32.3</v>
       </c>
       <c r="K185">
-        <v>0.394</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -9043,22 +9043,22 @@
         <v>196</v>
       </c>
       <c r="F187">
-        <v>99</v>
+        <v>96.3</v>
       </c>
       <c r="G187" t="s">
         <v>709</v>
       </c>
       <c r="H187">
-        <v>88</v>
+        <v>80.7</v>
       </c>
       <c r="I187">
-        <v>0.511</v>
+        <v>0.554</v>
       </c>
       <c r="J187">
-        <v>34.7</v>
+        <v>34</v>
       </c>
       <c r="K187">
-        <v>0.473</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -9148,22 +9148,22 @@
         <v>199</v>
       </c>
       <c r="F190">
-        <v>95.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="G190" t="s">
         <v>709</v>
       </c>
       <c r="H190">
-        <v>54</v>
+        <v>52.7</v>
       </c>
       <c r="I190">
-        <v>0.29</v>
+        <v>0.475</v>
       </c>
       <c r="J190">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="K190">
-        <v>0.427</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -9183,22 +9183,22 @@
         <v>702</v>
       </c>
       <c r="F191">
-        <v>96.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G191" t="s">
         <v>709</v>
       </c>
       <c r="H191">
-        <v>76.3</v>
+        <v>73</v>
       </c>
       <c r="I191">
-        <v>0.345</v>
+        <v>0.411</v>
       </c>
       <c r="J191">
-        <v>31.3</v>
+        <v>35.7</v>
       </c>
       <c r="K191">
-        <v>0.57</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -9218,22 +9218,22 @@
         <v>703</v>
       </c>
       <c r="F192">
-        <v>98.59999999999999</v>
+        <v>101.2</v>
       </c>
       <c r="G192" t="s">
         <v>709</v>
       </c>
       <c r="H192">
-        <v>67.7</v>
+        <v>68.7</v>
       </c>
       <c r="I192">
-        <v>0.527</v>
+        <v>0.5</v>
       </c>
       <c r="J192">
-        <v>18</v>
+        <v>14.7</v>
       </c>
       <c r="K192">
-        <v>0.243</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -9288,22 +9288,22 @@
         <v>704</v>
       </c>
       <c r="F194">
-        <v>105.6</v>
+        <v>103.1</v>
       </c>
       <c r="G194" t="s">
         <v>709</v>
       </c>
       <c r="H194">
-        <v>65.3</v>
+        <v>67.7</v>
       </c>
       <c r="I194">
-        <v>0.403</v>
+        <v>0.335</v>
       </c>
       <c r="J194">
-        <v>17</v>
+        <v>21.7</v>
       </c>
       <c r="K194">
-        <v>0.254</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -9498,22 +9498,22 @@
         <v>209</v>
       </c>
       <c r="F200">
-        <v>101.4</v>
+        <v>100.6</v>
       </c>
       <c r="G200" t="s">
         <v>709</v>
       </c>
       <c r="H200">
-        <v>54.7</v>
+        <v>57</v>
       </c>
       <c r="I200">
-        <v>0.36</v>
+        <v>0.386</v>
       </c>
       <c r="J200">
-        <v>14.3</v>
+        <v>16.7</v>
       </c>
       <c r="K200">
-        <v>0.202</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -9533,22 +9533,22 @@
         <v>705</v>
       </c>
       <c r="F201">
-        <v>88.09999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="G201" t="s">
         <v>709</v>
       </c>
       <c r="H201">
-        <v>68.7</v>
+        <v>57.3</v>
       </c>
       <c r="I201">
-        <v>0.398</v>
+        <v>0.378</v>
       </c>
       <c r="J201">
-        <v>33.3</v>
+        <v>34.3</v>
       </c>
       <c r="K201">
-        <v>0.452</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -9603,22 +9603,22 @@
         <v>212</v>
       </c>
       <c r="F203">
-        <v>88.5</v>
+        <v>87.3</v>
       </c>
       <c r="G203" t="s">
         <v>709</v>
       </c>
       <c r="H203">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I203">
-        <v>0.189</v>
+        <v>0.228</v>
       </c>
       <c r="J203">
         <v>27.7</v>
       </c>
       <c r="K203">
-        <v>0.426</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -10093,22 +10093,22 @@
         <v>226</v>
       </c>
       <c r="F217">
-        <v>82.5</v>
+        <v>82.3</v>
       </c>
       <c r="G217" t="s">
         <v>709</v>
       </c>
       <c r="H217">
-        <v>63.3</v>
+        <v>61.7</v>
       </c>
       <c r="I217">
-        <v>0.395</v>
+        <v>0.438</v>
       </c>
       <c r="J217">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K217">
-        <v>0.262</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -10128,22 +10128,22 @@
         <v>227</v>
       </c>
       <c r="F218">
-        <v>82</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G218" t="s">
         <v>709</v>
       </c>
       <c r="H218">
-        <v>54.3</v>
+        <v>60</v>
       </c>
       <c r="I218">
-        <v>0.423</v>
+        <v>0.339</v>
       </c>
       <c r="J218">
-        <v>26</v>
+        <v>23.3</v>
       </c>
       <c r="K218">
-        <v>0.318</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -10268,22 +10268,22 @@
         <v>231</v>
       </c>
       <c r="F222">
-        <v>83.2</v>
+        <v>86.8</v>
       </c>
       <c r="G222" t="s">
         <v>709</v>
       </c>
       <c r="H222">
-        <v>72.3</v>
+        <v>62.3</v>
       </c>
       <c r="I222">
-        <v>0.5669999999999999</v>
+        <v>0.636</v>
       </c>
       <c r="J222">
-        <v>27.7</v>
+        <v>23.7</v>
       </c>
       <c r="K222">
-        <v>0.384</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -10513,22 +10513,22 @@
         <v>707</v>
       </c>
       <c r="F229">
-        <v>109.6</v>
+        <v>113.8</v>
       </c>
       <c r="G229" t="s">
         <v>709</v>
       </c>
       <c r="H229">
-        <v>72.3</v>
+        <v>71</v>
       </c>
       <c r="I229">
-        <v>0.493</v>
+        <v>0.498</v>
       </c>
       <c r="J229">
-        <v>25.7</v>
+        <v>23</v>
       </c>
       <c r="K229">
-        <v>0.389</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
